--- a/JupyterNotebooks/AvgHW/Alpha3F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9982799377565358</v>
+      </c>
+      <c r="D3">
         <v>1.000476056317308</v>
-      </c>
-      <c r="D3">
-        <v>0.9982799377565358</v>
       </c>
       <c r="E3">
         <v>1.000404438691346</v>
       </c>
       <c r="F3">
+        <v>0.9982799377565358</v>
+      </c>
+      <c r="G3">
+        <v>1.000425317390174</v>
+      </c>
+      <c r="H3">
         <v>1.000476056317308</v>
       </c>
-      <c r="G3">
+      <c r="I3">
+        <v>0.9990705411895463</v>
+      </c>
+      <c r="J3">
         <v>1.00106485767717</v>
-      </c>
-      <c r="H3">
-        <v>0.9990705411895463</v>
-      </c>
-      <c r="I3">
-        <v>1.000425317390174</v>
-      </c>
-      <c r="J3">
-        <v>0.9982799377565358</v>
       </c>
       <c r="K3">
         <v>1.000476056317308</v>
@@ -728,7 +680,7 @@
         <v>0.9999535248370134</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9966766523396744</v>
+      </c>
+      <c r="D4">
         <v>1.000923553710478</v>
-      </c>
-      <c r="D4">
-        <v>0.9966766523396744</v>
       </c>
       <c r="E4">
         <v>1.000779329273812</v>
       </c>
       <c r="F4">
+        <v>0.9966766523396744</v>
+      </c>
+      <c r="G4">
+        <v>1.000821375954498</v>
+      </c>
+      <c r="H4">
         <v>1.000923553710478</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <v>0.9982055355943446</v>
+      </c>
+      <c r="J4">
         <v>1.002050737003951</v>
-      </c>
-      <c r="H4">
-        <v>0.9982055355943446</v>
-      </c>
-      <c r="I4">
-        <v>1.000821375954499</v>
-      </c>
-      <c r="J4">
-        <v>0.9966766523396744</v>
       </c>
       <c r="K4">
         <v>1.000923553710478</v>
@@ -766,10 +718,10 @@
         <v>1.000779329273812</v>
       </c>
       <c r="M4">
-        <v>0.9987279908067431</v>
+        <v>0.9987279908067432</v>
       </c>
       <c r="N4">
-        <v>0.9987279908067431</v>
+        <v>0.9987279908067432</v>
       </c>
       <c r="O4">
         <v>0.998553839069277</v>
@@ -790,7 +742,7 @@
         <v>0.9999095306461264</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9936434537652614</v>
+      </c>
+      <c r="D5">
         <v>1.001749985491743</v>
-      </c>
-      <c r="D5">
-        <v>0.9936434537652612</v>
       </c>
       <c r="E5">
         <v>1.001499772943195</v>
       </c>
       <c r="F5">
+        <v>0.9936434537652614</v>
+      </c>
+      <c r="G5">
+        <v>1.001572723034479</v>
+      </c>
+      <c r="H5">
         <v>1.001749985491743</v>
       </c>
-      <c r="G5">
+      <c r="I5">
+        <v>0.9965618044278711</v>
+      </c>
+      <c r="J5">
         <v>1.003951747900105</v>
-      </c>
-      <c r="H5">
-        <v>0.9965618044278711</v>
-      </c>
-      <c r="I5">
-        <v>1.001572723034479</v>
-      </c>
-      <c r="J5">
-        <v>0.9936434537652612</v>
       </c>
       <c r="K5">
         <v>1.001749985491743</v>
@@ -852,7 +804,7 @@
         <v>0.9998299145937756</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9906823088186869</v>
+      </c>
+      <c r="D6">
         <v>1.002558011938856</v>
-      </c>
-      <c r="D6">
-        <v>0.9906823088186869</v>
       </c>
       <c r="E6">
         <v>1.002202430795009</v>
       </c>
       <c r="F6">
+        <v>0.9906823088186869</v>
+      </c>
+      <c r="G6">
+        <v>1.002306101856046</v>
+      </c>
+      <c r="H6">
         <v>1.002558011938856</v>
       </c>
-      <c r="G6">
-        <v>1.005805421037268</v>
-      </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.9949575535931809</v>
       </c>
-      <c r="I6">
-        <v>1.002306101856046</v>
-      </c>
       <c r="J6">
-        <v>0.9906823088186869</v>
+        <v>1.005805421037267</v>
       </c>
       <c r="K6">
         <v>1.002558011938856</v>
@@ -914,7 +866,7 @@
         <v>0.9997519713398408</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9998724793563919</v>
+      </c>
+      <c r="D7">
         <v>1.000029566178476</v>
-      </c>
-      <c r="D7">
-        <v>0.9998724793563917</v>
       </c>
       <c r="E7">
         <v>1.000033167488457</v>
       </c>
       <c r="F7">
+        <v>0.9998724793563919</v>
+      </c>
+      <c r="G7">
+        <v>1.000032115832983</v>
+      </c>
+      <c r="H7">
         <v>1.000029566178476</v>
       </c>
-      <c r="G7">
+      <c r="I7">
+        <v>0.9999290319082419</v>
+      </c>
+      <c r="J7">
         <v>1.000089126808395</v>
-      </c>
-      <c r="H7">
-        <v>0.9999290319082419</v>
-      </c>
-      <c r="I7">
-        <v>1.000032115832983</v>
-      </c>
-      <c r="J7">
-        <v>0.9998724793563917</v>
       </c>
       <c r="K7">
         <v>1.000029566178476</v>
@@ -961,22 +913,22 @@
         <v>0.9999448929176967</v>
       </c>
       <c r="P7">
-        <v>0.9999784043411083</v>
+        <v>0.9999784043411082</v>
       </c>
       <c r="Q7">
         <v>0.9999784043411082</v>
       </c>
       <c r="R7">
-        <v>0.9999911948004503</v>
+        <v>0.9999911948004502</v>
       </c>
       <c r="S7">
-        <v>0.9999911948004503</v>
+        <v>0.9999911948004502</v>
       </c>
       <c r="T7">
         <v>0.9999975812621574</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9996272779419261</v>
+      </c>
+      <c r="D8">
         <v>1.000090835784287</v>
-      </c>
-      <c r="D8">
-        <v>0.9996272779419261</v>
       </c>
       <c r="E8">
         <v>1.000094485157768</v>
       </c>
       <c r="F8">
+        <v>0.9996272779419261</v>
+      </c>
+      <c r="G8">
+        <v>1.000093419366104</v>
+      </c>
+      <c r="H8">
         <v>1.000090835784287</v>
       </c>
-      <c r="G8">
+      <c r="I8">
+        <v>0.9997941598901109</v>
+      </c>
+      <c r="J8">
         <v>1.000252649490512</v>
-      </c>
-      <c r="H8">
-        <v>0.9997941598901109</v>
-      </c>
-      <c r="I8">
-        <v>1.000093419366104</v>
-      </c>
-      <c r="J8">
-        <v>0.9996272779419261</v>
       </c>
       <c r="K8">
         <v>1.000090835784287</v>
@@ -1023,22 +975,22 @@
         <v>0.9998386409966016</v>
       </c>
       <c r="P8">
-        <v>0.999937532961327</v>
+        <v>0.9999375329613268</v>
       </c>
       <c r="Q8">
         <v>0.999937532961327</v>
       </c>
       <c r="R8">
-        <v>0.9999758586670671</v>
+        <v>0.999975858667067</v>
       </c>
       <c r="S8">
-        <v>0.9999758586670671</v>
+        <v>0.999975858667067</v>
       </c>
       <c r="T8">
         <v>0.9999921379384514</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9994802452228474</v>
+      </c>
+      <c r="D9">
         <v>1.000134200069529</v>
-      </c>
-      <c r="D9">
-        <v>0.9994802452228474</v>
       </c>
       <c r="E9">
         <v>1.000127572990779</v>
       </c>
       <c r="F9">
+        <v>0.9994802452228474</v>
+      </c>
+      <c r="G9">
+        <v>1.000129503083781</v>
+      </c>
+      <c r="H9">
         <v>1.000134200069529</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <v>0.9997156696808389</v>
+      </c>
+      <c r="J9">
         <v>1.000338927894105</v>
-      </c>
-      <c r="H9">
-        <v>0.9997156696808389</v>
-      </c>
-      <c r="I9">
-        <v>1.000129503083781</v>
-      </c>
-      <c r="J9">
-        <v>0.9994802452228474</v>
       </c>
       <c r="K9">
         <v>1.000134200069529</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999876864903134</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9988832735210841</v>
+      </c>
+      <c r="D10">
         <v>1.000279236450041</v>
-      </c>
-      <c r="D10">
-        <v>0.9988832735210841</v>
       </c>
       <c r="E10">
         <v>1.000279151635515</v>
       </c>
       <c r="F10">
+        <v>0.9988832735210841</v>
+      </c>
+      <c r="G10">
+        <v>1.000279174321096</v>
+      </c>
+      <c r="H10">
         <v>1.000279236450041</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <v>0.9993858221296119</v>
+      </c>
+      <c r="J10">
         <v>1.000744382207297</v>
-      </c>
-      <c r="H10">
-        <v>0.9993858221296119</v>
-      </c>
-      <c r="I10">
-        <v>1.000279174321097</v>
-      </c>
-      <c r="J10">
-        <v>0.9988832735210841</v>
       </c>
       <c r="K10">
         <v>1.000279236450041</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999751733774408</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9981130914252366</v>
+      </c>
+      <c r="D11">
         <v>1.00049493768731</v>
-      </c>
-      <c r="D11">
-        <v>0.9981130914252366</v>
       </c>
       <c r="E11">
         <v>1.000458836110059</v>
       </c>
       <c r="F11">
+        <v>0.9981130914252366</v>
+      </c>
+      <c r="G11">
+        <v>1.000469360391444</v>
+      </c>
+      <c r="H11">
         <v>1.00049493768731</v>
       </c>
-      <c r="G11">
+      <c r="I11">
+        <v>0.998970555435025</v>
+      </c>
+      <c r="J11">
         <v>1.001216680772977</v>
-      </c>
-      <c r="H11">
-        <v>0.998970555435025</v>
-      </c>
-      <c r="I11">
-        <v>1.000469360391444</v>
-      </c>
-      <c r="J11">
-        <v>0.9981130914252366</v>
       </c>
       <c r="K11">
         <v>1.00049493768731</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999539103036753</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.026307230416782</v>
+      </c>
+      <c r="D12">
         <v>0.9936042637496323</v>
-      </c>
-      <c r="D12">
-        <v>1.026307230416783</v>
       </c>
       <c r="E12">
         <v>0.9933225938083304</v>
       </c>
       <c r="F12">
+        <v>1.026307230416782</v>
+      </c>
+      <c r="G12">
+        <v>0.9934047168842154</v>
+      </c>
+      <c r="H12">
         <v>0.9936042637496323</v>
       </c>
-      <c r="G12">
+      <c r="I12">
+        <v>1.01453417301664</v>
+      </c>
+      <c r="J12">
         <v>0.9821399329621439</v>
-      </c>
-      <c r="H12">
-        <v>1.01453417301664</v>
-      </c>
-      <c r="I12">
-        <v>0.9934047168842154</v>
-      </c>
-      <c r="J12">
-        <v>1.026307230416783</v>
       </c>
       <c r="K12">
         <v>0.9936042637496323</v>
@@ -1262,13 +1214,13 @@
         <v>0.9933225938083304</v>
       </c>
       <c r="M12">
-        <v>1.009814912112557</v>
+        <v>1.009814912112556</v>
       </c>
       <c r="N12">
-        <v>1.009814912112557</v>
+        <v>1.009814912112556</v>
       </c>
       <c r="O12">
-        <v>1.011387999080585</v>
+        <v>1.011387999080584</v>
       </c>
       <c r="P12">
         <v>1.004411362658248</v>
@@ -1286,7 +1238,7 @@
         <v>1.000552151806291</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.006916326509449</v>
+      </c>
+      <c r="D13">
         <v>0.9981876067073272</v>
-      </c>
-      <c r="D13">
-        <v>1.006916326509449</v>
       </c>
       <c r="E13">
         <v>0.99831720350967</v>
       </c>
       <c r="F13">
+        <v>1.006916326509449</v>
+      </c>
+      <c r="G13">
+        <v>0.9982794187545455</v>
+      </c>
+      <c r="H13">
         <v>0.9981876067073272</v>
       </c>
-      <c r="G13">
+      <c r="I13">
+        <v>1.003773989426914</v>
+      </c>
+      <c r="J13">
         <v>0.9955372268525647</v>
-      </c>
-      <c r="H13">
-        <v>1.003773989426914</v>
-      </c>
-      <c r="I13">
-        <v>0.9982794187545455</v>
-      </c>
-      <c r="J13">
-        <v>1.006916326509449</v>
       </c>
       <c r="K13">
         <v>0.9981876067073272</v>
@@ -1348,7 +1300,7 @@
         <v>1.000168628626745</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.084872540720699</v>
+      </c>
+      <c r="D14">
         <v>0.9758128926794662</v>
-      </c>
-      <c r="D14">
-        <v>1.084872540720699</v>
       </c>
       <c r="E14">
         <v>0.980431295704405</v>
       </c>
       <c r="F14">
+        <v>1.084872540720699</v>
+      </c>
+      <c r="G14">
+        <v>0.9790848220696176</v>
+      </c>
+      <c r="H14">
         <v>0.9758128926794662</v>
       </c>
-      <c r="G14">
+      <c r="I14">
+        <v>1.045611056808134</v>
+      </c>
+      <c r="J14">
         <v>0.9486964785724048</v>
-      </c>
-      <c r="H14">
-        <v>1.045611056808134</v>
-      </c>
-      <c r="I14">
-        <v>0.9790848220696176</v>
-      </c>
-      <c r="J14">
-        <v>1.084872540720699</v>
       </c>
       <c r="K14">
         <v>0.9758128926794662</v>
@@ -1410,7 +1362,7 @@
         <v>1.002418181092454</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.021208642780078</v>
+      </c>
+      <c r="D15">
         <v>0.9958976885806454</v>
-      </c>
-      <c r="D15">
-        <v>1.021208642780078</v>
       </c>
       <c r="E15">
         <v>0.9940312578073411</v>
       </c>
       <c r="F15">
+        <v>1.021208642780078</v>
+      </c>
+      <c r="G15">
+        <v>0.9945754080261084</v>
+      </c>
+      <c r="H15">
         <v>0.9958976885806454</v>
       </c>
-      <c r="G15">
+      <c r="I15">
+        <v>1.012096698796497</v>
+      </c>
+      <c r="J15">
         <v>0.983727838486491</v>
-      </c>
-      <c r="H15">
-        <v>1.012096698796497</v>
-      </c>
-      <c r="I15">
-        <v>0.9945754080261084</v>
-      </c>
-      <c r="J15">
-        <v>1.021208642780078</v>
       </c>
       <c r="K15">
         <v>0.9958976885806454</v>
@@ -1472,7 +1424,7 @@
         <v>1.000256255746194</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999695829895512</v>
+        <v>0.9665377756265858</v>
       </c>
       <c r="D16">
-        <v>1.000012825186498</v>
+        <v>1.009134231638214</v>
       </c>
       <c r="E16">
-        <v>1.000011912484822</v>
+        <v>1.007938507814257</v>
       </c>
       <c r="F16">
-        <v>0.9999695829895512</v>
+        <v>0.9665377756265858</v>
       </c>
       <c r="G16">
-        <v>1.000039824146733</v>
+        <v>1.008287120408729</v>
       </c>
       <c r="H16">
-        <v>0.9999972592683811</v>
+        <v>1.009134231638214</v>
       </c>
       <c r="I16">
-        <v>0.9999995696725325</v>
+        <v>0.9818724937778541</v>
       </c>
       <c r="J16">
-        <v>1.000012825186498</v>
+        <v>1.020941604790184</v>
       </c>
       <c r="K16">
-        <v>0.9999695829895512</v>
+        <v>1.009134231638214</v>
       </c>
       <c r="L16">
-        <v>1.000011912484822</v>
+        <v>1.007938507814257</v>
       </c>
       <c r="M16">
-        <v>1.00001236883566</v>
+        <v>0.9872381417204213</v>
       </c>
       <c r="N16">
-        <v>1.00001236883566</v>
+        <v>0.9872381417204213</v>
       </c>
       <c r="O16">
-        <v>1.000007332313234</v>
+        <v>0.9854495924062322</v>
       </c>
       <c r="P16">
-        <v>0.9999981068869571</v>
+        <v>0.9945368383596858</v>
       </c>
       <c r="Q16">
-        <v>0.9999981068869571</v>
+        <v>0.9945368383596858</v>
       </c>
       <c r="R16">
-        <v>0.9999909759126056</v>
+        <v>0.9981861866793179</v>
       </c>
       <c r="S16">
-        <v>0.9999909759126056</v>
+        <v>0.9981861866793179</v>
       </c>
       <c r="T16">
-        <v>1.00000516229142</v>
+        <v>0.9991186223426375</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000077235815577</v>
+        <v>0.9727674251524739</v>
       </c>
       <c r="D17">
-        <v>0.999827667621626</v>
+        <v>1.007204051072758</v>
       </c>
       <c r="E17">
-        <v>1.000024110577538</v>
+        <v>1.006588192146785</v>
       </c>
       <c r="F17">
-        <v>1.000077235815577</v>
+        <v>0.9727674251524739</v>
       </c>
       <c r="G17">
-        <v>1.000054172939703</v>
+        <v>1.006767745540862</v>
       </c>
       <c r="H17">
-        <v>0.9999175129945456</v>
+        <v>1.007204051072758</v>
       </c>
       <c r="I17">
-        <v>1.000039597384875</v>
+        <v>0.9851646065721342</v>
       </c>
       <c r="J17">
-        <v>0.999827667621626</v>
+        <v>1.017451207911691</v>
       </c>
       <c r="K17">
-        <v>1.000077235815577</v>
+        <v>1.007204051072758</v>
       </c>
       <c r="L17">
-        <v>1.000024110577538</v>
+        <v>1.006588192146785</v>
       </c>
       <c r="M17">
-        <v>0.9999258890995822</v>
+        <v>0.9896778086496294</v>
       </c>
       <c r="N17">
-        <v>0.9999258890995822</v>
+        <v>0.9896778086496294</v>
       </c>
       <c r="O17">
-        <v>0.9999230970645701</v>
+        <v>0.9881734079571309</v>
       </c>
       <c r="P17">
-        <v>0.9999763380049137</v>
+        <v>0.9955198894573388</v>
       </c>
       <c r="Q17">
-        <v>0.9999763380049137</v>
+        <v>0.9955198894573388</v>
       </c>
       <c r="R17">
-        <v>1.00000156245758</v>
+        <v>0.9984409298611936</v>
       </c>
       <c r="S17">
-        <v>1.00000156245758</v>
+        <v>0.9984409298611936</v>
       </c>
       <c r="T17">
-        <v>0.9999900495556441</v>
+        <v>0.9993238713994507</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000059354565936</v>
+        <v>0.9852437192186277</v>
       </c>
       <c r="D18">
-        <v>0.9995240810722342</v>
+        <v>1.003353216846655</v>
       </c>
       <c r="E18">
-        <v>1.0001521066467</v>
+        <v>1.003875660451296</v>
       </c>
       <c r="F18">
-        <v>1.000059354565936</v>
+        <v>0.9852437192186277</v>
       </c>
       <c r="G18">
-        <v>1.000423278353925</v>
+        <v>1.003723341256932</v>
       </c>
       <c r="H18">
-        <v>0.9997167818266369</v>
+        <v>1.003353216846655</v>
       </c>
       <c r="I18">
-        <v>1.000125061802061</v>
+        <v>0.9917631368354346</v>
       </c>
       <c r="J18">
-        <v>0.9995240810722342</v>
+        <v>1.010434598886436</v>
       </c>
       <c r="K18">
-        <v>1.000059354565936</v>
+        <v>1.003353216846655</v>
       </c>
       <c r="L18">
-        <v>1.0001521066467</v>
+        <v>1.003875660451296</v>
       </c>
       <c r="M18">
-        <v>0.9998380938594673</v>
+        <v>0.9945596898349618</v>
       </c>
       <c r="N18">
-        <v>0.9998380938594673</v>
+        <v>0.9945596898349618</v>
       </c>
       <c r="O18">
-        <v>0.9997976565151906</v>
+        <v>0.9936275055017861</v>
       </c>
       <c r="P18">
-        <v>0.9999118474282901</v>
+        <v>0.9974908655055262</v>
       </c>
       <c r="Q18">
-        <v>0.9999118474282901</v>
+        <v>0.9974908655055262</v>
       </c>
       <c r="R18">
-        <v>0.9999487242127014</v>
+        <v>0.9989564533408084</v>
       </c>
       <c r="S18">
-        <v>0.9999487242127014</v>
+        <v>0.9989564533408084</v>
       </c>
       <c r="T18">
-        <v>1.000000110711249</v>
+        <v>0.9997322789158968</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1618,306 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9836509677629057</v>
+      </c>
+      <c r="D19">
+        <v>1.00358040876221</v>
+      </c>
+      <c r="E19">
+        <v>1.004368843941516</v>
+      </c>
+      <c r="F19">
+        <v>0.9836509677629057</v>
+      </c>
+      <c r="G19">
+        <v>1.004138979066014</v>
+      </c>
+      <c r="H19">
+        <v>1.00358040876221</v>
+      </c>
+      <c r="I19">
+        <v>0.9908255636106542</v>
+      </c>
+      <c r="J19">
+        <v>1.011800427376618</v>
+      </c>
+      <c r="K19">
+        <v>1.00358040876221</v>
+      </c>
+      <c r="L19">
+        <v>1.004368843941516</v>
+      </c>
+      <c r="M19">
+        <v>0.9940099058522109</v>
+      </c>
+      <c r="N19">
+        <v>0.9940099058522109</v>
+      </c>
+      <c r="O19">
+        <v>0.9929484584383587</v>
+      </c>
+      <c r="P19">
+        <v>0.9972000734888772</v>
+      </c>
+      <c r="Q19">
+        <v>0.9972000734888772</v>
+      </c>
+      <c r="R19">
+        <v>0.9987951573072104</v>
+      </c>
+      <c r="S19">
+        <v>0.9987951573072104</v>
+      </c>
+      <c r="T19">
+        <v>0.9997275317533196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000012825186498</v>
+      </c>
+      <c r="D20">
+        <v>0.9999695829895512</v>
+      </c>
+      <c r="E20">
+        <v>1.000011912484822</v>
+      </c>
+      <c r="F20">
+        <v>1.000012825186498</v>
+      </c>
+      <c r="G20">
+        <v>0.9999995696725322</v>
+      </c>
+      <c r="H20">
+        <v>0.9999695829895512</v>
+      </c>
+      <c r="I20">
+        <v>0.9999972592683811</v>
+      </c>
+      <c r="J20">
+        <v>1.000039824146733</v>
+      </c>
+      <c r="K20">
+        <v>0.9999695829895512</v>
+      </c>
+      <c r="L20">
+        <v>1.000011912484822</v>
+      </c>
+      <c r="M20">
+        <v>1.00001236883566</v>
+      </c>
+      <c r="N20">
+        <v>1.00001236883566</v>
+      </c>
+      <c r="O20">
+        <v>1.000007332313234</v>
+      </c>
+      <c r="P20">
+        <v>0.9999981068869571</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999981068869571</v>
+      </c>
+      <c r="R20">
+        <v>0.9999909759126056</v>
+      </c>
+      <c r="S20">
+        <v>0.9999909759126056</v>
+      </c>
+      <c r="T20">
+        <v>1.00000516229142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.999827667621626</v>
+      </c>
+      <c r="D21">
+        <v>1.000077235815577</v>
+      </c>
+      <c r="E21">
+        <v>1.000024110577538</v>
+      </c>
+      <c r="F21">
+        <v>0.999827667621626</v>
+      </c>
+      <c r="G21">
+        <v>1.000039597384875</v>
+      </c>
+      <c r="H21">
+        <v>1.000077235815577</v>
+      </c>
+      <c r="I21">
+        <v>0.999917512994546</v>
+      </c>
+      <c r="J21">
+        <v>1.000054172939703</v>
+      </c>
+      <c r="K21">
+        <v>1.000077235815577</v>
+      </c>
+      <c r="L21">
+        <v>1.000024110577538</v>
+      </c>
+      <c r="M21">
+        <v>0.9999258890995822</v>
+      </c>
+      <c r="N21">
+        <v>0.9999258890995822</v>
+      </c>
+      <c r="O21">
+        <v>0.9999230970645702</v>
+      </c>
+      <c r="P21">
+        <v>0.9999763380049137</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999763380049137</v>
+      </c>
+      <c r="R21">
+        <v>1.00000156245758</v>
+      </c>
+      <c r="S21">
+        <v>1.00000156245758</v>
+      </c>
+      <c r="T21">
+        <v>0.9999900495556441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9995240810722342</v>
+      </c>
+      <c r="D22">
+        <v>1.000059354565935</v>
+      </c>
+      <c r="E22">
+        <v>1.0001521066467</v>
+      </c>
+      <c r="F22">
+        <v>0.9995240810722342</v>
+      </c>
+      <c r="G22">
+        <v>1.000125061802061</v>
+      </c>
+      <c r="H22">
+        <v>1.000059354565935</v>
+      </c>
+      <c r="I22">
+        <v>0.9997167818266373</v>
+      </c>
+      <c r="J22">
+        <v>1.000423278353925</v>
+      </c>
+      <c r="K22">
+        <v>1.000059354565935</v>
+      </c>
+      <c r="L22">
+        <v>1.0001521066467</v>
+      </c>
+      <c r="M22">
+        <v>0.9998380938594673</v>
+      </c>
+      <c r="N22">
+        <v>0.9998380938594673</v>
+      </c>
+      <c r="O22">
+        <v>0.9997976565151907</v>
+      </c>
+      <c r="P22">
+        <v>0.9999118474282899</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999118474282899</v>
+      </c>
+      <c r="R22">
+        <v>0.9999487242127012</v>
+      </c>
+      <c r="S22">
+        <v>0.9999487242127012</v>
+      </c>
+      <c r="T22">
+        <v>1.000000110711249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9989591111822494</v>
+      </c>
+      <c r="D23">
         <v>1.000018726335561</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.00039438547508</v>
+      </c>
+      <c r="F23">
         <v>0.9989591111822494</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.000284866614215</v>
+      </c>
+      <c r="H23">
+        <v>1.000018726335561</v>
+      </c>
+      <c r="I23">
+        <v>0.999340569704417</v>
+      </c>
+      <c r="J23">
+        <v>1.001123259853363</v>
+      </c>
+      <c r="K23">
+        <v>1.000018726335561</v>
+      </c>
+      <c r="L23">
         <v>1.00039438547508</v>
       </c>
-      <c r="F19">
-        <v>1.000018726335561</v>
-      </c>
-      <c r="G19">
-        <v>1.001123259853363</v>
-      </c>
-      <c r="H19">
-        <v>0.9993405697044173</v>
-      </c>
-      <c r="I19">
-        <v>1.000284866614215</v>
-      </c>
-      <c r="J19">
-        <v>0.9989591111822494</v>
-      </c>
-      <c r="K19">
-        <v>1.000018726335561</v>
-      </c>
-      <c r="L19">
-        <v>1.00039438547508</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9996767483286646</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9996767483286646</v>
       </c>
-      <c r="O19">
-        <v>0.9995646887872489</v>
-      </c>
-      <c r="P19">
+      <c r="O23">
+        <v>0.9995646887872488</v>
+      </c>
+      <c r="P23">
         <v>0.99979074099763</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9997907409976302</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9998477373321129</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9998477373321129</v>
       </c>
-      <c r="T19">
-        <v>1.000020153194148</v>
+      <c r="T23">
+        <v>1.000020153194147</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9982799377565358</v>
+        <v>0.9814250774351577</v>
       </c>
       <c r="D3">
-        <v>1.000476056317308</v>
+        <v>1.004296933443803</v>
       </c>
       <c r="E3">
-        <v>1.000404438691346</v>
+        <v>1.004836399956771</v>
       </c>
       <c r="F3">
-        <v>0.9982799377565358</v>
+        <v>0.9814250774351577</v>
       </c>
       <c r="G3">
-        <v>1.000425317390174</v>
+        <v>1.004679118573487</v>
       </c>
       <c r="H3">
-        <v>1.000476056317308</v>
+        <v>1.004296933443803</v>
       </c>
       <c r="I3">
-        <v>0.9990705411895463</v>
+        <v>0.9896589456484134</v>
       </c>
       <c r="J3">
-        <v>1.00106485767717</v>
+        <v>1.012999810662824</v>
       </c>
       <c r="K3">
-        <v>1.000476056317308</v>
+        <v>1.004296933443803</v>
       </c>
       <c r="L3">
-        <v>1.000404438691346</v>
+        <v>1.004836399956771</v>
       </c>
       <c r="M3">
-        <v>0.9993421882239406</v>
+        <v>0.9931307386959645</v>
       </c>
       <c r="N3">
-        <v>0.9993421882239406</v>
+        <v>0.9931307386959645</v>
       </c>
       <c r="O3">
-        <v>0.9992516392124758</v>
+        <v>0.9919734743467807</v>
       </c>
       <c r="P3">
-        <v>0.9997201442550629</v>
+        <v>0.9968528036119108</v>
       </c>
       <c r="Q3">
-        <v>0.9997201442550631</v>
+        <v>0.9968528036119108</v>
       </c>
       <c r="R3">
-        <v>0.9999091222706242</v>
+        <v>0.9987138360698838</v>
       </c>
       <c r="S3">
-        <v>0.9999091222706242</v>
+        <v>0.9987138360698838</v>
       </c>
       <c r="T3">
-        <v>0.9999535248370134</v>
+        <v>0.9996493809534095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9966766523396744</v>
+        <v>0.9835036527049982</v>
       </c>
       <c r="D4">
-        <v>1.000923553710478</v>
+        <v>1.003772306304514</v>
       </c>
       <c r="E4">
-        <v>1.000779329273812</v>
+        <v>1.004319524293704</v>
       </c>
       <c r="F4">
-        <v>0.9966766523396744</v>
+        <v>0.9835036527049982</v>
       </c>
       <c r="G4">
-        <v>1.000821375954498</v>
+        <v>1.004159983255681</v>
       </c>
       <c r="H4">
-        <v>1.000923553710478</v>
+        <v>1.003772306304514</v>
       </c>
       <c r="I4">
-        <v>0.9982055355943446</v>
+        <v>0.990800368177416</v>
       </c>
       <c r="J4">
-        <v>1.002050737003951</v>
+        <v>1.011622953311601</v>
       </c>
       <c r="K4">
-        <v>1.000923553710478</v>
+        <v>1.003772306304514</v>
       </c>
       <c r="L4">
-        <v>1.000779329273812</v>
+        <v>1.004319524293704</v>
       </c>
       <c r="M4">
-        <v>0.9987279908067432</v>
+        <v>0.9939115884993512</v>
       </c>
       <c r="N4">
-        <v>0.9987279908067432</v>
+        <v>0.9939115884993512</v>
       </c>
       <c r="O4">
-        <v>0.998553839069277</v>
+        <v>0.9928745150587061</v>
       </c>
       <c r="P4">
-        <v>0.9994598451079882</v>
+        <v>0.9971984944344054</v>
       </c>
       <c r="Q4">
-        <v>0.9994598451079882</v>
+        <v>0.9971984944344054</v>
       </c>
       <c r="R4">
-        <v>0.9998257722586107</v>
+        <v>0.9988419474019326</v>
       </c>
       <c r="S4">
-        <v>0.9998257722586107</v>
+        <v>0.9988419474019326</v>
       </c>
       <c r="T4">
-        <v>0.9999095306461264</v>
+        <v>0.9996964646746523</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9936434537652614</v>
+        <v>0.9774946092722373</v>
       </c>
       <c r="D5">
-        <v>1.001749985491743</v>
+        <v>1.005289558436658</v>
       </c>
       <c r="E5">
-        <v>1.001499772943195</v>
+        <v>1.005813461778976</v>
       </c>
       <c r="F5">
-        <v>0.9936434537652614</v>
+        <v>0.9774946092722373</v>
       </c>
       <c r="G5">
-        <v>1.001572723034479</v>
+        <v>1.005660715040432</v>
       </c>
       <c r="H5">
-        <v>1.001749985491743</v>
+        <v>1.005289558436658</v>
       </c>
       <c r="I5">
-        <v>0.9965618044278711</v>
+        <v>0.9875007890566035</v>
       </c>
       <c r="J5">
-        <v>1.003951747900105</v>
+        <v>1.015602329164421</v>
       </c>
       <c r="K5">
-        <v>1.001749985491743</v>
+        <v>1.005289558436658</v>
       </c>
       <c r="L5">
-        <v>1.001499772943195</v>
+        <v>1.005813461778976</v>
       </c>
       <c r="M5">
-        <v>0.9975716133542282</v>
+        <v>0.9916540355256067</v>
       </c>
       <c r="N5">
-        <v>0.9975716133542282</v>
+        <v>0.9916540355256067</v>
       </c>
       <c r="O5">
-        <v>0.9972350103787758</v>
+        <v>0.990269620035939</v>
       </c>
       <c r="P5">
-        <v>0.9989644040667329</v>
+        <v>0.9961992098292903</v>
       </c>
       <c r="Q5">
-        <v>0.9989644040667329</v>
+        <v>0.9961992098292903</v>
       </c>
       <c r="R5">
-        <v>0.9996607994229854</v>
+        <v>0.9984717969811322</v>
       </c>
       <c r="S5">
-        <v>0.9996607994229854</v>
+        <v>0.9984717969811322</v>
       </c>
       <c r="T5">
-        <v>0.9998299145937756</v>
+        <v>0.9995602437915547</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9906823088186869</v>
+        <v>0.9738449156818193</v>
       </c>
       <c r="D6">
-        <v>1.002558011938856</v>
+        <v>1.006211980454545</v>
       </c>
       <c r="E6">
-        <v>1.002202430795009</v>
+        <v>1.006720329772728</v>
       </c>
       <c r="F6">
-        <v>0.9906823088186869</v>
+        <v>0.9738449156818193</v>
       </c>
       <c r="G6">
-        <v>1.002306101856046</v>
+        <v>1.00657212159091</v>
       </c>
       <c r="H6">
-        <v>1.002558011938856</v>
+        <v>1.006211980454545</v>
       </c>
       <c r="I6">
-        <v>0.9949575535931809</v>
+        <v>0.985497056818183</v>
       </c>
       <c r="J6">
-        <v>1.005805421037267</v>
+        <v>1.018017686477272</v>
       </c>
       <c r="K6">
-        <v>1.002558011938856</v>
+        <v>1.006211980454545</v>
       </c>
       <c r="L6">
-        <v>1.002202430795009</v>
+        <v>1.006720329772728</v>
       </c>
       <c r="M6">
-        <v>0.9964423698068477</v>
+        <v>0.9902826227272736</v>
       </c>
       <c r="N6">
-        <v>0.9964423698068477</v>
+        <v>0.9902826227272736</v>
       </c>
       <c r="O6">
-        <v>0.9959474310689588</v>
+        <v>0.9886874340909101</v>
       </c>
       <c r="P6">
-        <v>0.9984809171841839</v>
+        <v>0.9955924086363641</v>
       </c>
       <c r="Q6">
-        <v>0.9984809171841839</v>
+        <v>0.995592408636364</v>
       </c>
       <c r="R6">
-        <v>0.9995001908728518</v>
+        <v>0.9982473015909092</v>
       </c>
       <c r="S6">
-        <v>0.9995001908728518</v>
+        <v>0.9982473015909092</v>
       </c>
       <c r="T6">
-        <v>0.9997519713398408</v>
+        <v>0.9994773484659095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998724793563919</v>
+        <v>0.8930292328916544</v>
       </c>
       <c r="D7">
-        <v>1.000029566178476</v>
+        <v>1.031100212508576</v>
       </c>
       <c r="E7">
-        <v>1.000033167488457</v>
+        <v>1.02432185354368</v>
       </c>
       <c r="F7">
-        <v>0.9998724793563919</v>
+        <v>0.8930292328916544</v>
       </c>
       <c r="G7">
-        <v>1.000032115832983</v>
+        <v>1.026298038836009</v>
       </c>
       <c r="H7">
-        <v>1.000029566178476</v>
+        <v>1.031100212508576</v>
       </c>
       <c r="I7">
-        <v>0.9999290319082419</v>
+        <v>0.9427347847368753</v>
       </c>
       <c r="J7">
-        <v>1.000089126808395</v>
+        <v>1.063567160656994</v>
       </c>
       <c r="K7">
-        <v>1.000029566178476</v>
+        <v>1.031100212508576</v>
       </c>
       <c r="L7">
-        <v>1.000033167488457</v>
+        <v>1.02432185354368</v>
       </c>
       <c r="M7">
-        <v>0.9999528234224242</v>
+        <v>0.958675543217667</v>
       </c>
       <c r="N7">
-        <v>0.9999528234224242</v>
+        <v>0.958675543217667</v>
       </c>
       <c r="O7">
-        <v>0.9999448929176967</v>
+        <v>0.9533619570574031</v>
       </c>
       <c r="P7">
-        <v>0.9999784043411082</v>
+        <v>0.98281709964797</v>
       </c>
       <c r="Q7">
-        <v>0.9999784043411082</v>
+        <v>0.98281709964797</v>
       </c>
       <c r="R7">
-        <v>0.9999911948004502</v>
+        <v>0.9948878778631216</v>
       </c>
       <c r="S7">
-        <v>0.9999911948004502</v>
+        <v>0.9948878778631216</v>
       </c>
       <c r="T7">
-        <v>0.9999975812621574</v>
+        <v>0.9968418805289647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9996272779419261</v>
+        <v>0.8930423090184135</v>
       </c>
       <c r="D8">
-        <v>1.000090835784287</v>
+        <v>1.031078963800421</v>
       </c>
       <c r="E8">
-        <v>1.000094485157768</v>
+        <v>1.024328573234077</v>
       </c>
       <c r="F8">
-        <v>0.9996272779419261</v>
+        <v>0.8930423090184135</v>
       </c>
       <c r="G8">
-        <v>1.000093419366104</v>
+        <v>1.026296604342213</v>
       </c>
       <c r="H8">
-        <v>1.000090835784287</v>
+        <v>1.031078963800421</v>
       </c>
       <c r="I8">
-        <v>0.9997941598901109</v>
+        <v>0.9427355039141989</v>
       </c>
       <c r="J8">
-        <v>1.000252649490512</v>
+        <v>1.063590407046105</v>
       </c>
       <c r="K8">
-        <v>1.000090835784287</v>
+        <v>1.031078963800421</v>
       </c>
       <c r="L8">
-        <v>1.000094485157768</v>
+        <v>1.024328573234077</v>
       </c>
       <c r="M8">
-        <v>0.9998608815498469</v>
+        <v>0.9586854411262455</v>
       </c>
       <c r="N8">
-        <v>0.9998608815498469</v>
+        <v>0.9586854411262455</v>
       </c>
       <c r="O8">
-        <v>0.9998386409966016</v>
+        <v>0.9533687953888966</v>
       </c>
       <c r="P8">
-        <v>0.9999375329613268</v>
+        <v>0.9828166153509706</v>
       </c>
       <c r="Q8">
-        <v>0.999937532961327</v>
+        <v>0.9828166153509704</v>
       </c>
       <c r="R8">
-        <v>0.999975858667067</v>
+        <v>0.994882202463333</v>
       </c>
       <c r="S8">
-        <v>0.999975858667067</v>
+        <v>0.994882202463333</v>
       </c>
       <c r="T8">
-        <v>0.9999921379384514</v>
+        <v>0.9968453935592381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9994802452228474</v>
+        <v>0.893067332264436</v>
       </c>
       <c r="D9">
-        <v>1.000134200069529</v>
+        <v>1.031038301018328</v>
       </c>
       <c r="E9">
-        <v>1.000127572990779</v>
+        <v>1.024341432520662</v>
       </c>
       <c r="F9">
-        <v>0.9994802452228474</v>
+        <v>0.893067332264436</v>
       </c>
       <c r="G9">
-        <v>1.000129503083781</v>
+        <v>1.026293859450923</v>
       </c>
       <c r="H9">
-        <v>1.000134200069529</v>
+        <v>1.031038301018328</v>
       </c>
       <c r="I9">
-        <v>0.9997156696808389</v>
+        <v>0.9427368801787998</v>
       </c>
       <c r="J9">
-        <v>1.000338927894105</v>
+        <v>1.063634892776013</v>
       </c>
       <c r="K9">
-        <v>1.000134200069529</v>
+        <v>1.031038301018328</v>
       </c>
       <c r="L9">
-        <v>1.000127572990779</v>
+        <v>1.024341432520662</v>
       </c>
       <c r="M9">
-        <v>0.9998039091068134</v>
+        <v>0.958704382392549</v>
       </c>
       <c r="N9">
-        <v>0.9998039091068134</v>
+        <v>0.958704382392549</v>
       </c>
       <c r="O9">
-        <v>0.9997744959648219</v>
+        <v>0.9533818816546326</v>
       </c>
       <c r="P9">
-        <v>0.9999140060943853</v>
+        <v>0.9828156886011419</v>
       </c>
       <c r="Q9">
-        <v>0.9999140060943853</v>
+        <v>0.9828156886011419</v>
       </c>
       <c r="R9">
-        <v>0.9999690545881712</v>
+        <v>0.9948713417054383</v>
       </c>
       <c r="S9">
-        <v>0.9999690545881712</v>
+        <v>0.9948713417054383</v>
       </c>
       <c r="T9">
-        <v>0.9999876864903134</v>
+        <v>0.9968521163681935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9988832735210841</v>
+        <v>0.8930654241137971</v>
       </c>
       <c r="D10">
-        <v>1.000279236450041</v>
+        <v>1.031041401545417</v>
       </c>
       <c r="E10">
-        <v>1.000279151635515</v>
+        <v>1.024340452076158</v>
       </c>
       <c r="F10">
-        <v>0.9988832735210841</v>
+        <v>0.8930654241137971</v>
       </c>
       <c r="G10">
-        <v>1.000279174321096</v>
+        <v>1.026294068549028</v>
       </c>
       <c r="H10">
-        <v>1.000279236450041</v>
+        <v>1.031041401545417</v>
       </c>
       <c r="I10">
-        <v>0.9993858221296119</v>
+        <v>0.9427367752259092</v>
       </c>
       <c r="J10">
-        <v>1.000744382207297</v>
+        <v>1.063631500044111</v>
       </c>
       <c r="K10">
-        <v>1.000279236450041</v>
+        <v>1.031041401545417</v>
       </c>
       <c r="L10">
-        <v>1.000279151635515</v>
+        <v>1.024340452076158</v>
       </c>
       <c r="M10">
-        <v>0.9995812125782995</v>
+        <v>0.9587029380949776</v>
       </c>
       <c r="N10">
-        <v>0.9995812125782995</v>
+        <v>0.9587029380949776</v>
       </c>
       <c r="O10">
-        <v>0.9995160824287369</v>
+        <v>0.9533808838052882</v>
       </c>
       <c r="P10">
-        <v>0.9998138872022132</v>
+        <v>0.9828157592451241</v>
       </c>
       <c r="Q10">
-        <v>0.9998138872022132</v>
+        <v>0.9828157592451241</v>
       </c>
       <c r="R10">
-        <v>0.9999302245141701</v>
+        <v>0.9948721698201972</v>
       </c>
       <c r="S10">
-        <v>0.9999302245141701</v>
+        <v>0.9948721698201972</v>
       </c>
       <c r="T10">
-        <v>0.9999751733774408</v>
+        <v>0.9968516035924034</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9981130914252366</v>
+        <v>0.9977280071168008</v>
       </c>
       <c r="D11">
-        <v>1.00049493768731</v>
+        <v>1.000650273638716</v>
       </c>
       <c r="E11">
-        <v>1.000458836110059</v>
+        <v>1.000522290617612</v>
       </c>
       <c r="F11">
-        <v>0.9981130914252366</v>
+        <v>0.9977280071168008</v>
       </c>
       <c r="G11">
-        <v>1.000469360391444</v>
+        <v>1.000559601888265</v>
       </c>
       <c r="H11">
-        <v>1.00049493768731</v>
+        <v>1.000650273638716</v>
       </c>
       <c r="I11">
-        <v>0.998970555435025</v>
+        <v>0.9987800234909371</v>
       </c>
       <c r="J11">
-        <v>1.001216680772977</v>
+        <v>1.001368394783448</v>
       </c>
       <c r="K11">
-        <v>1.00049493768731</v>
+        <v>1.000650273638716</v>
       </c>
       <c r="L11">
-        <v>1.000458836110059</v>
+        <v>1.000522290617612</v>
       </c>
       <c r="M11">
-        <v>0.9992859637676479</v>
+        <v>0.9991251488672066</v>
       </c>
       <c r="N11">
-        <v>0.9992859637676479</v>
+        <v>0.9991251488672066</v>
       </c>
       <c r="O11">
-        <v>0.9991808276567736</v>
+        <v>0.9990101070751168</v>
       </c>
       <c r="P11">
-        <v>0.9996889550742019</v>
+        <v>0.9996335237910429</v>
       </c>
       <c r="Q11">
-        <v>0.9996889550742019</v>
+        <v>0.9996335237910429</v>
       </c>
       <c r="R11">
-        <v>0.9998904507274788</v>
+        <v>0.9998877112529611</v>
       </c>
       <c r="S11">
-        <v>0.9998904507274788</v>
+        <v>0.9998877112529611</v>
       </c>
       <c r="T11">
-        <v>0.9999539103036753</v>
+        <v>0.9999347652559631</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.026307230416782</v>
+        <v>0.9986269827118972</v>
       </c>
       <c r="D12">
-        <v>0.9936042637496323</v>
+        <v>1.000382459033218</v>
       </c>
       <c r="E12">
-        <v>0.9933225938083304</v>
+        <v>1.000321475402617</v>
       </c>
       <c r="F12">
-        <v>1.026307230416782</v>
+        <v>0.9986269827118972</v>
       </c>
       <c r="G12">
-        <v>0.9934047168842154</v>
+        <v>1.000339253201475</v>
       </c>
       <c r="H12">
-        <v>0.9936042637496323</v>
+        <v>1.000382459033218</v>
       </c>
       <c r="I12">
-        <v>1.01453417301664</v>
+        <v>0.999258955279839</v>
       </c>
       <c r="J12">
-        <v>0.9821399329621439</v>
+        <v>1.000845646707301</v>
       </c>
       <c r="K12">
-        <v>0.9936042637496323</v>
+        <v>1.000382459033218</v>
       </c>
       <c r="L12">
-        <v>0.9933225938083304</v>
+        <v>1.000321475402617</v>
       </c>
       <c r="M12">
-        <v>1.009814912112556</v>
+        <v>0.9994742290572571</v>
       </c>
       <c r="N12">
-        <v>1.009814912112556</v>
+        <v>0.9994742290572571</v>
       </c>
       <c r="O12">
-        <v>1.011387999080584</v>
+        <v>0.9994024711314511</v>
       </c>
       <c r="P12">
-        <v>1.004411362658248</v>
+        <v>0.9997769723825775</v>
       </c>
       <c r="Q12">
-        <v>1.004411362658248</v>
+        <v>0.9997769723825775</v>
       </c>
       <c r="R12">
-        <v>1.001709587931094</v>
+        <v>0.9999283440452376</v>
       </c>
       <c r="S12">
-        <v>1.001709587931094</v>
+        <v>0.9999283440452376</v>
       </c>
       <c r="T12">
-        <v>1.000552151806291</v>
+        <v>0.9999624620560579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.006916326509449</v>
+        <v>0.995420707659059</v>
       </c>
       <c r="D13">
-        <v>0.9981876067073272</v>
+        <v>1.001266518324758</v>
       </c>
       <c r="E13">
-        <v>0.99831720350967</v>
+        <v>1.001077217777967</v>
       </c>
       <c r="F13">
-        <v>1.006916326509449</v>
+        <v>0.995420707659059</v>
       </c>
       <c r="G13">
-        <v>0.9982794187545455</v>
+        <v>1.001132404979108</v>
       </c>
       <c r="H13">
-        <v>0.9981876067073272</v>
+        <v>1.001266518324758</v>
       </c>
       <c r="I13">
-        <v>1.003773989426914</v>
+        <v>0.9975251976910936</v>
       </c>
       <c r="J13">
-        <v>0.9955372268525647</v>
+        <v>1.002836516270303</v>
       </c>
       <c r="K13">
-        <v>0.9981876067073272</v>
+        <v>1.001266518324758</v>
       </c>
       <c r="L13">
-        <v>0.99831720350967</v>
+        <v>1.001077217777967</v>
       </c>
       <c r="M13">
-        <v>1.002616765009559</v>
+        <v>0.9982489627185129</v>
       </c>
       <c r="N13">
-        <v>1.002616765009559</v>
+        <v>0.9982489627185129</v>
       </c>
       <c r="O13">
-        <v>1.003002506482011</v>
+        <v>0.9980077077093732</v>
       </c>
       <c r="P13">
-        <v>1.001140378908815</v>
+        <v>0.9992548145872613</v>
       </c>
       <c r="Q13">
-        <v>1.001140378908815</v>
+        <v>0.9992548145872613</v>
       </c>
       <c r="R13">
-        <v>1.000402185858443</v>
+        <v>0.9997577405216355</v>
       </c>
       <c r="S13">
-        <v>1.000402185858443</v>
+        <v>0.9997577405216355</v>
       </c>
       <c r="T13">
-        <v>1.000168628626745</v>
+        <v>0.9998764271170483</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.084872540720699</v>
+        <v>0.9951854339921598</v>
       </c>
       <c r="D14">
-        <v>0.9758128926794662</v>
+        <v>1.001325004937958</v>
       </c>
       <c r="E14">
-        <v>0.980431295704405</v>
+        <v>1.001136218508685</v>
       </c>
       <c r="F14">
-        <v>1.084872540720699</v>
+        <v>0.9951854339921598</v>
       </c>
       <c r="G14">
-        <v>0.9790848220696176</v>
+        <v>1.001191259581799</v>
       </c>
       <c r="H14">
-        <v>0.9758128926794662</v>
+        <v>1.001325004937958</v>
       </c>
       <c r="I14">
-        <v>1.045611056808134</v>
+        <v>0.9973956744983987</v>
       </c>
       <c r="J14">
-        <v>0.9486964785724048</v>
+        <v>1.002993954721552</v>
       </c>
       <c r="K14">
-        <v>0.9758128926794662</v>
+        <v>1.001325004937958</v>
       </c>
       <c r="L14">
-        <v>0.980431295704405</v>
+        <v>1.001136218508685</v>
       </c>
       <c r="M14">
-        <v>1.032651918212552</v>
+        <v>0.9981608262504221</v>
       </c>
       <c r="N14">
-        <v>1.032651918212552</v>
+        <v>0.9981608262504221</v>
       </c>
       <c r="O14">
-        <v>1.036971631077746</v>
+        <v>0.9979057756664144</v>
       </c>
       <c r="P14">
-        <v>1.01370557636819</v>
+        <v>0.9992155524796008</v>
       </c>
       <c r="Q14">
-        <v>1.01370557636819</v>
+        <v>0.9992155524796008</v>
       </c>
       <c r="R14">
-        <v>1.004232405446009</v>
+        <v>0.9997429155941902</v>
       </c>
       <c r="S14">
-        <v>1.004232405446009</v>
+        <v>0.9997429155941902</v>
       </c>
       <c r="T14">
-        <v>1.002418181092454</v>
+        <v>0.9998712577067584</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.021208642780078</v>
+        <v>0.9982799377565358</v>
       </c>
       <c r="D15">
-        <v>0.9958976885806454</v>
+        <v>1.000476056317308</v>
       </c>
       <c r="E15">
-        <v>0.9940312578073411</v>
+        <v>1.000404438691346</v>
       </c>
       <c r="F15">
-        <v>1.021208642780078</v>
+        <v>0.9982799377565358</v>
       </c>
       <c r="G15">
-        <v>0.9945754080261084</v>
+        <v>1.000425317390174</v>
       </c>
       <c r="H15">
-        <v>0.9958976885806454</v>
+        <v>1.000476056317308</v>
       </c>
       <c r="I15">
-        <v>1.012096698796497</v>
+        <v>0.9990705411895463</v>
       </c>
       <c r="J15">
-        <v>0.983727838486491</v>
+        <v>1.00106485767717</v>
       </c>
       <c r="K15">
-        <v>0.9958976885806454</v>
+        <v>1.000476056317308</v>
       </c>
       <c r="L15">
-        <v>0.9940312578073411</v>
+        <v>1.000404438691346</v>
       </c>
       <c r="M15">
-        <v>1.00761995029371</v>
+        <v>0.9993421882239406</v>
       </c>
       <c r="N15">
-        <v>1.00761995029371</v>
+        <v>0.9993421882239406</v>
       </c>
       <c r="O15">
-        <v>1.009112199794639</v>
+        <v>0.9992516392124758</v>
       </c>
       <c r="P15">
-        <v>1.003712529722688</v>
+        <v>0.9997201442550629</v>
       </c>
       <c r="Q15">
-        <v>1.003712529722688</v>
+        <v>0.9997201442550631</v>
       </c>
       <c r="R15">
-        <v>1.001758819437177</v>
+        <v>0.9999091222706242</v>
       </c>
       <c r="S15">
-        <v>1.001758819437177</v>
+        <v>0.9999091222706242</v>
       </c>
       <c r="T15">
-        <v>1.000256255746194</v>
+        <v>0.9999535248370134</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9665377756265858</v>
+        <v>0.9966766523396744</v>
       </c>
       <c r="D16">
-        <v>1.009134231638214</v>
+        <v>1.000923553710478</v>
       </c>
       <c r="E16">
-        <v>1.007938507814257</v>
+        <v>1.000779329273812</v>
       </c>
       <c r="F16">
-        <v>0.9665377756265858</v>
+        <v>0.9966766523396744</v>
       </c>
       <c r="G16">
-        <v>1.008287120408729</v>
+        <v>1.000821375954498</v>
       </c>
       <c r="H16">
-        <v>1.009134231638214</v>
+        <v>1.000923553710478</v>
       </c>
       <c r="I16">
-        <v>0.9818724937778541</v>
+        <v>0.9982055355943446</v>
       </c>
       <c r="J16">
-        <v>1.020941604790184</v>
+        <v>1.002050737003951</v>
       </c>
       <c r="K16">
-        <v>1.009134231638214</v>
+        <v>1.000923553710478</v>
       </c>
       <c r="L16">
-        <v>1.007938507814257</v>
+        <v>1.000779329273812</v>
       </c>
       <c r="M16">
-        <v>0.9872381417204213</v>
+        <v>0.9987279908067432</v>
       </c>
       <c r="N16">
-        <v>0.9872381417204213</v>
+        <v>0.9987279908067432</v>
       </c>
       <c r="O16">
-        <v>0.9854495924062322</v>
+        <v>0.998553839069277</v>
       </c>
       <c r="P16">
-        <v>0.9945368383596858</v>
+        <v>0.9994598451079882</v>
       </c>
       <c r="Q16">
-        <v>0.9945368383596858</v>
+        <v>0.9994598451079882</v>
       </c>
       <c r="R16">
-        <v>0.9981861866793179</v>
+        <v>0.9998257722586107</v>
       </c>
       <c r="S16">
-        <v>0.9981861866793179</v>
+        <v>0.9998257722586107</v>
       </c>
       <c r="T16">
-        <v>0.9991186223426375</v>
+        <v>0.9999095306461264</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9727674251524739</v>
+        <v>0.9936434537652614</v>
       </c>
       <c r="D17">
-        <v>1.007204051072758</v>
+        <v>1.001749985491743</v>
       </c>
       <c r="E17">
-        <v>1.006588192146785</v>
+        <v>1.001499772943195</v>
       </c>
       <c r="F17">
-        <v>0.9727674251524739</v>
+        <v>0.9936434537652614</v>
       </c>
       <c r="G17">
-        <v>1.006767745540862</v>
+        <v>1.001572723034479</v>
       </c>
       <c r="H17">
-        <v>1.007204051072758</v>
+        <v>1.001749985491743</v>
       </c>
       <c r="I17">
-        <v>0.9851646065721342</v>
+        <v>0.9965618044278711</v>
       </c>
       <c r="J17">
-        <v>1.017451207911691</v>
+        <v>1.003951747900105</v>
       </c>
       <c r="K17">
-        <v>1.007204051072758</v>
+        <v>1.001749985491743</v>
       </c>
       <c r="L17">
-        <v>1.006588192146785</v>
+        <v>1.001499772943195</v>
       </c>
       <c r="M17">
-        <v>0.9896778086496294</v>
+        <v>0.9975716133542282</v>
       </c>
       <c r="N17">
-        <v>0.9896778086496294</v>
+        <v>0.9975716133542282</v>
       </c>
       <c r="O17">
-        <v>0.9881734079571309</v>
+        <v>0.9972350103787758</v>
       </c>
       <c r="P17">
-        <v>0.9955198894573388</v>
+        <v>0.9989644040667329</v>
       </c>
       <c r="Q17">
-        <v>0.9955198894573388</v>
+        <v>0.9989644040667329</v>
       </c>
       <c r="R17">
-        <v>0.9984409298611936</v>
+        <v>0.9996607994229854</v>
       </c>
       <c r="S17">
-        <v>0.9984409298611936</v>
+        <v>0.9996607994229854</v>
       </c>
       <c r="T17">
-        <v>0.9993238713994507</v>
+        <v>0.9998299145937756</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9852437192186277</v>
+        <v>0.9906823088186869</v>
       </c>
       <c r="D18">
-        <v>1.003353216846655</v>
+        <v>1.002558011938856</v>
       </c>
       <c r="E18">
-        <v>1.003875660451296</v>
+        <v>1.002202430795009</v>
       </c>
       <c r="F18">
-        <v>0.9852437192186277</v>
+        <v>0.9906823088186869</v>
       </c>
       <c r="G18">
-        <v>1.003723341256932</v>
+        <v>1.002306101856046</v>
       </c>
       <c r="H18">
-        <v>1.003353216846655</v>
+        <v>1.002558011938856</v>
       </c>
       <c r="I18">
-        <v>0.9917631368354346</v>
+        <v>0.9949575535931809</v>
       </c>
       <c r="J18">
-        <v>1.010434598886436</v>
+        <v>1.005805421037267</v>
       </c>
       <c r="K18">
-        <v>1.003353216846655</v>
+        <v>1.002558011938856</v>
       </c>
       <c r="L18">
-        <v>1.003875660451296</v>
+        <v>1.002202430795009</v>
       </c>
       <c r="M18">
-        <v>0.9945596898349618</v>
+        <v>0.9964423698068477</v>
       </c>
       <c r="N18">
-        <v>0.9945596898349618</v>
+        <v>0.9964423698068477</v>
       </c>
       <c r="O18">
-        <v>0.9936275055017861</v>
+        <v>0.9959474310689588</v>
       </c>
       <c r="P18">
-        <v>0.9974908655055262</v>
+        <v>0.9984809171841839</v>
       </c>
       <c r="Q18">
-        <v>0.9974908655055262</v>
+        <v>0.9984809171841839</v>
       </c>
       <c r="R18">
-        <v>0.9989564533408084</v>
+        <v>0.9995001908728518</v>
       </c>
       <c r="S18">
-        <v>0.9989564533408084</v>
+        <v>0.9995001908728518</v>
       </c>
       <c r="T18">
-        <v>0.9997322789158968</v>
+        <v>0.9997519713398408</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9836509677629057</v>
+        <v>0.9998724793563919</v>
       </c>
       <c r="D19">
-        <v>1.00358040876221</v>
+        <v>1.000029566178476</v>
       </c>
       <c r="E19">
-        <v>1.004368843941516</v>
+        <v>1.000033167488457</v>
       </c>
       <c r="F19">
-        <v>0.9836509677629057</v>
+        <v>0.9998724793563919</v>
       </c>
       <c r="G19">
-        <v>1.004138979066014</v>
+        <v>1.000032115832983</v>
       </c>
       <c r="H19">
-        <v>1.00358040876221</v>
+        <v>1.000029566178476</v>
       </c>
       <c r="I19">
-        <v>0.9908255636106542</v>
+        <v>0.9999290319082419</v>
       </c>
       <c r="J19">
-        <v>1.011800427376618</v>
+        <v>1.000089126808395</v>
       </c>
       <c r="K19">
-        <v>1.00358040876221</v>
+        <v>1.000029566178476</v>
       </c>
       <c r="L19">
-        <v>1.004368843941516</v>
+        <v>1.000033167488457</v>
       </c>
       <c r="M19">
-        <v>0.9940099058522109</v>
+        <v>0.9999528234224242</v>
       </c>
       <c r="N19">
-        <v>0.9940099058522109</v>
+        <v>0.9999528234224242</v>
       </c>
       <c r="O19">
-        <v>0.9929484584383587</v>
+        <v>0.9999448929176967</v>
       </c>
       <c r="P19">
-        <v>0.9972000734888772</v>
+        <v>0.9999784043411082</v>
       </c>
       <c r="Q19">
-        <v>0.9972000734888772</v>
+        <v>0.9999784043411082</v>
       </c>
       <c r="R19">
-        <v>0.9987951573072104</v>
+        <v>0.9999911948004502</v>
       </c>
       <c r="S19">
-        <v>0.9987951573072104</v>
+        <v>0.9999911948004502</v>
       </c>
       <c r="T19">
-        <v>0.9997275317533196</v>
+        <v>0.9999975812621574</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000012825186498</v>
+        <v>0.9996272779419261</v>
       </c>
       <c r="D20">
-        <v>0.9999695829895512</v>
+        <v>1.000090835784287</v>
       </c>
       <c r="E20">
-        <v>1.000011912484822</v>
+        <v>1.000094485157768</v>
       </c>
       <c r="F20">
-        <v>1.000012825186498</v>
+        <v>0.9996272779419261</v>
       </c>
       <c r="G20">
-        <v>0.9999995696725322</v>
+        <v>1.000093419366104</v>
       </c>
       <c r="H20">
-        <v>0.9999695829895512</v>
+        <v>1.000090835784287</v>
       </c>
       <c r="I20">
-        <v>0.9999972592683811</v>
+        <v>0.9997941598901109</v>
       </c>
       <c r="J20">
-        <v>1.000039824146733</v>
+        <v>1.000252649490512</v>
       </c>
       <c r="K20">
-        <v>0.9999695829895512</v>
+        <v>1.000090835784287</v>
       </c>
       <c r="L20">
-        <v>1.000011912484822</v>
+        <v>1.000094485157768</v>
       </c>
       <c r="M20">
-        <v>1.00001236883566</v>
+        <v>0.9998608815498469</v>
       </c>
       <c r="N20">
-        <v>1.00001236883566</v>
+        <v>0.9998608815498469</v>
       </c>
       <c r="O20">
-        <v>1.000007332313234</v>
+        <v>0.9998386409966016</v>
       </c>
       <c r="P20">
-        <v>0.9999981068869571</v>
+        <v>0.9999375329613268</v>
       </c>
       <c r="Q20">
-        <v>0.9999981068869571</v>
+        <v>0.999937532961327</v>
       </c>
       <c r="R20">
-        <v>0.9999909759126056</v>
+        <v>0.999975858667067</v>
       </c>
       <c r="S20">
-        <v>0.9999909759126056</v>
+        <v>0.999975858667067</v>
       </c>
       <c r="T20">
-        <v>1.00000516229142</v>
+        <v>0.9999921379384514</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.999827667621626</v>
+        <v>0.9994802452228474</v>
       </c>
       <c r="D21">
-        <v>1.000077235815577</v>
+        <v>1.000134200069529</v>
       </c>
       <c r="E21">
-        <v>1.000024110577538</v>
+        <v>1.000127572990779</v>
       </c>
       <c r="F21">
-        <v>0.999827667621626</v>
+        <v>0.9994802452228474</v>
       </c>
       <c r="G21">
-        <v>1.000039597384875</v>
+        <v>1.000129503083781</v>
       </c>
       <c r="H21">
-        <v>1.000077235815577</v>
+        <v>1.000134200069529</v>
       </c>
       <c r="I21">
-        <v>0.999917512994546</v>
+        <v>0.9997156696808389</v>
       </c>
       <c r="J21">
-        <v>1.000054172939703</v>
+        <v>1.000338927894105</v>
       </c>
       <c r="K21">
-        <v>1.000077235815577</v>
+        <v>1.000134200069529</v>
       </c>
       <c r="L21">
-        <v>1.000024110577538</v>
+        <v>1.000127572990779</v>
       </c>
       <c r="M21">
-        <v>0.9999258890995822</v>
+        <v>0.9998039091068134</v>
       </c>
       <c r="N21">
-        <v>0.9999258890995822</v>
+        <v>0.9998039091068134</v>
       </c>
       <c r="O21">
-        <v>0.9999230970645702</v>
+        <v>0.9997744959648219</v>
       </c>
       <c r="P21">
-        <v>0.9999763380049137</v>
+        <v>0.9999140060943853</v>
       </c>
       <c r="Q21">
-        <v>0.9999763380049137</v>
+        <v>0.9999140060943853</v>
       </c>
       <c r="R21">
-        <v>1.00000156245758</v>
+        <v>0.9999690545881712</v>
       </c>
       <c r="S21">
-        <v>1.00000156245758</v>
+        <v>0.9999690545881712</v>
       </c>
       <c r="T21">
-        <v>0.9999900495556441</v>
+        <v>0.9999876864903134</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9995240810722342</v>
+        <v>0.9988832735210841</v>
       </c>
       <c r="D22">
-        <v>1.000059354565935</v>
+        <v>1.000279236450041</v>
       </c>
       <c r="E22">
-        <v>1.0001521066467</v>
+        <v>1.000279151635515</v>
       </c>
       <c r="F22">
-        <v>0.9995240810722342</v>
+        <v>0.9988832735210841</v>
       </c>
       <c r="G22">
-        <v>1.000125061802061</v>
+        <v>1.000279174321096</v>
       </c>
       <c r="H22">
-        <v>1.000059354565935</v>
+        <v>1.000279236450041</v>
       </c>
       <c r="I22">
-        <v>0.9997167818266373</v>
+        <v>0.9993858221296119</v>
       </c>
       <c r="J22">
-        <v>1.000423278353925</v>
+        <v>1.000744382207297</v>
       </c>
       <c r="K22">
-        <v>1.000059354565935</v>
+        <v>1.000279236450041</v>
       </c>
       <c r="L22">
-        <v>1.0001521066467</v>
+        <v>1.000279151635515</v>
       </c>
       <c r="M22">
-        <v>0.9998380938594673</v>
+        <v>0.9995812125782995</v>
       </c>
       <c r="N22">
-        <v>0.9998380938594673</v>
+        <v>0.9995812125782995</v>
       </c>
       <c r="O22">
-        <v>0.9997976565151907</v>
+        <v>0.9995160824287369</v>
       </c>
       <c r="P22">
-        <v>0.9999118474282899</v>
+        <v>0.9998138872022132</v>
       </c>
       <c r="Q22">
-        <v>0.9999118474282899</v>
+        <v>0.9998138872022132</v>
       </c>
       <c r="R22">
-        <v>0.9999487242127012</v>
+        <v>0.9999302245141701</v>
       </c>
       <c r="S22">
-        <v>0.9999487242127012</v>
+        <v>0.9999302245141701</v>
       </c>
       <c r="T22">
-        <v>1.000000110711249</v>
+        <v>0.9999751733774408</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9981130914252366</v>
+      </c>
+      <c r="D23">
+        <v>1.00049493768731</v>
+      </c>
+      <c r="E23">
+        <v>1.000458836110059</v>
+      </c>
+      <c r="F23">
+        <v>0.9981130914252366</v>
+      </c>
+      <c r="G23">
+        <v>1.000469360391444</v>
+      </c>
+      <c r="H23">
+        <v>1.00049493768731</v>
+      </c>
+      <c r="I23">
+        <v>0.998970555435025</v>
+      </c>
+      <c r="J23">
+        <v>1.001216680772977</v>
+      </c>
+      <c r="K23">
+        <v>1.00049493768731</v>
+      </c>
+      <c r="L23">
+        <v>1.000458836110059</v>
+      </c>
+      <c r="M23">
+        <v>0.9992859637676479</v>
+      </c>
+      <c r="N23">
+        <v>0.9992859637676479</v>
+      </c>
+      <c r="O23">
+        <v>0.9991808276567736</v>
+      </c>
+      <c r="P23">
+        <v>0.9996889550742019</v>
+      </c>
+      <c r="Q23">
+        <v>0.9996889550742019</v>
+      </c>
+      <c r="R23">
+        <v>0.9998904507274788</v>
+      </c>
+      <c r="S23">
+        <v>0.9998904507274788</v>
+      </c>
+      <c r="T23">
+        <v>0.9999539103036753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.026307230416782</v>
+      </c>
+      <c r="D24">
+        <v>0.9936042637496323</v>
+      </c>
+      <c r="E24">
+        <v>0.9933225938083304</v>
+      </c>
+      <c r="F24">
+        <v>1.026307230416782</v>
+      </c>
+      <c r="G24">
+        <v>0.9934047168842154</v>
+      </c>
+      <c r="H24">
+        <v>0.9936042637496323</v>
+      </c>
+      <c r="I24">
+        <v>1.01453417301664</v>
+      </c>
+      <c r="J24">
+        <v>0.9821399329621439</v>
+      </c>
+      <c r="K24">
+        <v>0.9936042637496323</v>
+      </c>
+      <c r="L24">
+        <v>0.9933225938083304</v>
+      </c>
+      <c r="M24">
+        <v>1.009814912112556</v>
+      </c>
+      <c r="N24">
+        <v>1.009814912112556</v>
+      </c>
+      <c r="O24">
+        <v>1.011387999080584</v>
+      </c>
+      <c r="P24">
+        <v>1.004411362658248</v>
+      </c>
+      <c r="Q24">
+        <v>1.004411362658248</v>
+      </c>
+      <c r="R24">
+        <v>1.001709587931094</v>
+      </c>
+      <c r="S24">
+        <v>1.001709587931094</v>
+      </c>
+      <c r="T24">
+        <v>1.000552151806291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.006916326509449</v>
+      </c>
+      <c r="D25">
+        <v>0.9981876067073272</v>
+      </c>
+      <c r="E25">
+        <v>0.99831720350967</v>
+      </c>
+      <c r="F25">
+        <v>1.006916326509449</v>
+      </c>
+      <c r="G25">
+        <v>0.9982794187545455</v>
+      </c>
+      <c r="H25">
+        <v>0.9981876067073272</v>
+      </c>
+      <c r="I25">
+        <v>1.003773989426914</v>
+      </c>
+      <c r="J25">
+        <v>0.9955372268525647</v>
+      </c>
+      <c r="K25">
+        <v>0.9981876067073272</v>
+      </c>
+      <c r="L25">
+        <v>0.99831720350967</v>
+      </c>
+      <c r="M25">
+        <v>1.002616765009559</v>
+      </c>
+      <c r="N25">
+        <v>1.002616765009559</v>
+      </c>
+      <c r="O25">
+        <v>1.003002506482011</v>
+      </c>
+      <c r="P25">
+        <v>1.001140378908815</v>
+      </c>
+      <c r="Q25">
+        <v>1.001140378908815</v>
+      </c>
+      <c r="R25">
+        <v>1.000402185858443</v>
+      </c>
+      <c r="S25">
+        <v>1.000402185858443</v>
+      </c>
+      <c r="T25">
+        <v>1.000168628626745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.084872540720699</v>
+      </c>
+      <c r="D26">
+        <v>0.9758128926794662</v>
+      </c>
+      <c r="E26">
+        <v>0.980431295704405</v>
+      </c>
+      <c r="F26">
+        <v>1.084872540720699</v>
+      </c>
+      <c r="G26">
+        <v>0.9790848220696176</v>
+      </c>
+      <c r="H26">
+        <v>0.9758128926794662</v>
+      </c>
+      <c r="I26">
+        <v>1.045611056808134</v>
+      </c>
+      <c r="J26">
+        <v>0.9486964785724048</v>
+      </c>
+      <c r="K26">
+        <v>0.9758128926794662</v>
+      </c>
+      <c r="L26">
+        <v>0.980431295704405</v>
+      </c>
+      <c r="M26">
+        <v>1.032651918212552</v>
+      </c>
+      <c r="N26">
+        <v>1.032651918212552</v>
+      </c>
+      <c r="O26">
+        <v>1.036971631077746</v>
+      </c>
+      <c r="P26">
+        <v>1.01370557636819</v>
+      </c>
+      <c r="Q26">
+        <v>1.01370557636819</v>
+      </c>
+      <c r="R26">
+        <v>1.004232405446009</v>
+      </c>
+      <c r="S26">
+        <v>1.004232405446009</v>
+      </c>
+      <c r="T26">
+        <v>1.002418181092454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.021208642780078</v>
+      </c>
+      <c r="D27">
+        <v>0.9958976885806454</v>
+      </c>
+      <c r="E27">
+        <v>0.9940312578073411</v>
+      </c>
+      <c r="F27">
+        <v>1.021208642780078</v>
+      </c>
+      <c r="G27">
+        <v>0.9945754080261084</v>
+      </c>
+      <c r="H27">
+        <v>0.9958976885806454</v>
+      </c>
+      <c r="I27">
+        <v>1.012096698796497</v>
+      </c>
+      <c r="J27">
+        <v>0.983727838486491</v>
+      </c>
+      <c r="K27">
+        <v>0.9958976885806454</v>
+      </c>
+      <c r="L27">
+        <v>0.9940312578073411</v>
+      </c>
+      <c r="M27">
+        <v>1.00761995029371</v>
+      </c>
+      <c r="N27">
+        <v>1.00761995029371</v>
+      </c>
+      <c r="O27">
+        <v>1.009112199794639</v>
+      </c>
+      <c r="P27">
+        <v>1.003712529722688</v>
+      </c>
+      <c r="Q27">
+        <v>1.003712529722688</v>
+      </c>
+      <c r="R27">
+        <v>1.001758819437177</v>
+      </c>
+      <c r="S27">
+        <v>1.001758819437177</v>
+      </c>
+      <c r="T27">
+        <v>1.000256255746194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9665377756265858</v>
+      </c>
+      <c r="D28">
+        <v>1.009134231638214</v>
+      </c>
+      <c r="E28">
+        <v>1.007938507814257</v>
+      </c>
+      <c r="F28">
+        <v>0.9665377756265858</v>
+      </c>
+      <c r="G28">
+        <v>1.008287120408729</v>
+      </c>
+      <c r="H28">
+        <v>1.009134231638214</v>
+      </c>
+      <c r="I28">
+        <v>0.9818724937778541</v>
+      </c>
+      <c r="J28">
+        <v>1.020941604790184</v>
+      </c>
+      <c r="K28">
+        <v>1.009134231638214</v>
+      </c>
+      <c r="L28">
+        <v>1.007938507814257</v>
+      </c>
+      <c r="M28">
+        <v>0.9872381417204213</v>
+      </c>
+      <c r="N28">
+        <v>0.9872381417204213</v>
+      </c>
+      <c r="O28">
+        <v>0.9854495924062322</v>
+      </c>
+      <c r="P28">
+        <v>0.9945368383596858</v>
+      </c>
+      <c r="Q28">
+        <v>0.9945368383596858</v>
+      </c>
+      <c r="R28">
+        <v>0.9981861866793179</v>
+      </c>
+      <c r="S28">
+        <v>0.9981861866793179</v>
+      </c>
+      <c r="T28">
+        <v>0.9991186223426375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9727674251524739</v>
+      </c>
+      <c r="D29">
+        <v>1.007204051072758</v>
+      </c>
+      <c r="E29">
+        <v>1.006588192146785</v>
+      </c>
+      <c r="F29">
+        <v>0.9727674251524739</v>
+      </c>
+      <c r="G29">
+        <v>1.006767745540862</v>
+      </c>
+      <c r="H29">
+        <v>1.007204051072758</v>
+      </c>
+      <c r="I29">
+        <v>0.9851646065721342</v>
+      </c>
+      <c r="J29">
+        <v>1.017451207911691</v>
+      </c>
+      <c r="K29">
+        <v>1.007204051072758</v>
+      </c>
+      <c r="L29">
+        <v>1.006588192146785</v>
+      </c>
+      <c r="M29">
+        <v>0.9896778086496294</v>
+      </c>
+      <c r="N29">
+        <v>0.9896778086496294</v>
+      </c>
+      <c r="O29">
+        <v>0.9881734079571309</v>
+      </c>
+      <c r="P29">
+        <v>0.9955198894573388</v>
+      </c>
+      <c r="Q29">
+        <v>0.9955198894573388</v>
+      </c>
+      <c r="R29">
+        <v>0.9984409298611936</v>
+      </c>
+      <c r="S29">
+        <v>0.9984409298611936</v>
+      </c>
+      <c r="T29">
+        <v>0.9993238713994507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9852437192186277</v>
+      </c>
+      <c r="D30">
+        <v>1.003353216846655</v>
+      </c>
+      <c r="E30">
+        <v>1.003875660451296</v>
+      </c>
+      <c r="F30">
+        <v>0.9852437192186277</v>
+      </c>
+      <c r="G30">
+        <v>1.003723341256932</v>
+      </c>
+      <c r="H30">
+        <v>1.003353216846655</v>
+      </c>
+      <c r="I30">
+        <v>0.9917631368354346</v>
+      </c>
+      <c r="J30">
+        <v>1.010434598886436</v>
+      </c>
+      <c r="K30">
+        <v>1.003353216846655</v>
+      </c>
+      <c r="L30">
+        <v>1.003875660451296</v>
+      </c>
+      <c r="M30">
+        <v>0.9945596898349618</v>
+      </c>
+      <c r="N30">
+        <v>0.9945596898349618</v>
+      </c>
+      <c r="O30">
+        <v>0.9936275055017861</v>
+      </c>
+      <c r="P30">
+        <v>0.9974908655055262</v>
+      </c>
+      <c r="Q30">
+        <v>0.9974908655055262</v>
+      </c>
+      <c r="R30">
+        <v>0.9989564533408084</v>
+      </c>
+      <c r="S30">
+        <v>0.9989564533408084</v>
+      </c>
+      <c r="T30">
+        <v>0.9997322789158968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9836509677629057</v>
+      </c>
+      <c r="D31">
+        <v>1.00358040876221</v>
+      </c>
+      <c r="E31">
+        <v>1.004368843941516</v>
+      </c>
+      <c r="F31">
+        <v>0.9836509677629057</v>
+      </c>
+      <c r="G31">
+        <v>1.004138979066014</v>
+      </c>
+      <c r="H31">
+        <v>1.00358040876221</v>
+      </c>
+      <c r="I31">
+        <v>0.9908255636106542</v>
+      </c>
+      <c r="J31">
+        <v>1.011800427376618</v>
+      </c>
+      <c r="K31">
+        <v>1.00358040876221</v>
+      </c>
+      <c r="L31">
+        <v>1.004368843941516</v>
+      </c>
+      <c r="M31">
+        <v>0.9940099058522109</v>
+      </c>
+      <c r="N31">
+        <v>0.9940099058522109</v>
+      </c>
+      <c r="O31">
+        <v>0.9929484584383587</v>
+      </c>
+      <c r="P31">
+        <v>0.9972000734888772</v>
+      </c>
+      <c r="Q31">
+        <v>0.9972000734888772</v>
+      </c>
+      <c r="R31">
+        <v>0.9987951573072104</v>
+      </c>
+      <c r="S31">
+        <v>0.9987951573072104</v>
+      </c>
+      <c r="T31">
+        <v>0.9997275317533196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.959251740684932</v>
+      </c>
+      <c r="D32">
+        <v>1.011471202739726</v>
+      </c>
+      <c r="E32">
+        <v>1.009473645205479</v>
+      </c>
+      <c r="F32">
+        <v>0.959251740684932</v>
+      </c>
+      <c r="G32">
+        <v>1.010056030410959</v>
+      </c>
+      <c r="H32">
+        <v>1.011471202739726</v>
+      </c>
+      <c r="I32">
+        <v>0.9780507391780822</v>
+      </c>
+      <c r="J32">
+        <v>1.024882579178083</v>
+      </c>
+      <c r="K32">
+        <v>1.011471202739726</v>
+      </c>
+      <c r="L32">
+        <v>1.009473645205479</v>
+      </c>
+      <c r="M32">
+        <v>0.9843626929452056</v>
+      </c>
+      <c r="N32">
+        <v>0.9843626929452056</v>
+      </c>
+      <c r="O32">
+        <v>0.9822587083561644</v>
+      </c>
+      <c r="P32">
+        <v>0.9933988628767124</v>
+      </c>
+      <c r="Q32">
+        <v>0.9933988628767126</v>
+      </c>
+      <c r="R32">
+        <v>0.997916947842466</v>
+      </c>
+      <c r="S32">
+        <v>0.997916947842466</v>
+      </c>
+      <c r="T32">
+        <v>0.9988643228995436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9559060231578946</v>
+      </c>
+      <c r="D33">
+        <v>1.007175040526316</v>
+      </c>
+      <c r="E33">
+        <v>1.013161517894737</v>
+      </c>
+      <c r="F33">
+        <v>0.9559060231578946</v>
+      </c>
+      <c r="G33">
+        <v>1.011416189473684</v>
+      </c>
+      <c r="H33">
+        <v>1.007175040526316</v>
+      </c>
+      <c r="I33">
+        <v>0.9743628705263159</v>
+      </c>
+      <c r="J33">
+        <v>1.036237676842105</v>
+      </c>
+      <c r="K33">
+        <v>1.007175040526316</v>
+      </c>
+      <c r="L33">
+        <v>1.013161517894737</v>
+      </c>
+      <c r="M33">
+        <v>0.9845337705263157</v>
+      </c>
+      <c r="N33">
+        <v>0.9845337705263157</v>
+      </c>
+      <c r="O33">
+        <v>0.9811434705263157</v>
+      </c>
+      <c r="P33">
+        <v>0.9920808605263157</v>
+      </c>
+      <c r="Q33">
+        <v>0.9920808605263157</v>
+      </c>
+      <c r="R33">
+        <v>0.9958544055263158</v>
+      </c>
+      <c r="S33">
+        <v>0.9958544055263158</v>
+      </c>
+      <c r="T33">
+        <v>0.9997098864035087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.8933262410526317</v>
+      </c>
+      <c r="D34">
+        <v>1.030617573684211</v>
+      </c>
+      <c r="E34">
+        <v>1.024474484210526</v>
+      </c>
+      <c r="F34">
+        <v>0.8933262410526317</v>
+      </c>
+      <c r="G34">
+        <v>1.026265457894737</v>
+      </c>
+      <c r="H34">
+        <v>1.030617573684211</v>
+      </c>
+      <c r="I34">
+        <v>0.9427511200000002</v>
+      </c>
+      <c r="J34">
+        <v>1.06409517368421</v>
+      </c>
+      <c r="K34">
+        <v>1.030617573684211</v>
+      </c>
+      <c r="L34">
+        <v>1.024474484210526</v>
+      </c>
+      <c r="M34">
+        <v>0.958900362631579</v>
+      </c>
+      <c r="N34">
+        <v>0.958900362631579</v>
+      </c>
+      <c r="O34">
+        <v>0.9535172817543861</v>
+      </c>
+      <c r="P34">
+        <v>0.9828060996491228</v>
+      </c>
+      <c r="Q34">
+        <v>0.9828060996491228</v>
+      </c>
+      <c r="R34">
+        <v>0.9947589681578948</v>
+      </c>
+      <c r="S34">
+        <v>0.9947589681578948</v>
+      </c>
+      <c r="T34">
+        <v>0.9969216750877193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9422567956309718</v>
+      </c>
+      <c r="D35">
+        <v>1.012431056042788</v>
+      </c>
+      <c r="E35">
+        <v>1.015549570266414</v>
+      </c>
+      <c r="F35">
+        <v>0.9422567956309718</v>
+      </c>
+      <c r="G35">
+        <v>1.014640369774835</v>
+      </c>
+      <c r="H35">
+        <v>1.012431056042788</v>
+      </c>
+      <c r="I35">
+        <v>0.9675195292481046</v>
+      </c>
+      <c r="J35">
+        <v>1.042059455566767</v>
+      </c>
+      <c r="K35">
+        <v>1.012431056042788</v>
+      </c>
+      <c r="L35">
+        <v>1.015549570266414</v>
+      </c>
+      <c r="M35">
+        <v>0.9789031829486929</v>
+      </c>
+      <c r="N35">
+        <v>0.9789031829486929</v>
+      </c>
+      <c r="O35">
+        <v>0.9751086317151635</v>
+      </c>
+      <c r="P35">
+        <v>0.9900791406467245</v>
+      </c>
+      <c r="Q35">
+        <v>0.9900791406467245</v>
+      </c>
+      <c r="R35">
+        <v>0.9956671194957403</v>
+      </c>
+      <c r="S35">
+        <v>0.9956671194957403</v>
+      </c>
+      <c r="T35">
+        <v>0.9990761294216468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000012825186498</v>
+      </c>
+      <c r="D36">
+        <v>0.9999695829895512</v>
+      </c>
+      <c r="E36">
+        <v>1.000011912484822</v>
+      </c>
+      <c r="F36">
+        <v>1.000012825186498</v>
+      </c>
+      <c r="G36">
+        <v>0.9999995696725322</v>
+      </c>
+      <c r="H36">
+        <v>0.9999695829895512</v>
+      </c>
+      <c r="I36">
+        <v>0.9999972592683811</v>
+      </c>
+      <c r="J36">
+        <v>1.000039824146733</v>
+      </c>
+      <c r="K36">
+        <v>0.9999695829895512</v>
+      </c>
+      <c r="L36">
+        <v>1.000011912484822</v>
+      </c>
+      <c r="M36">
+        <v>1.00001236883566</v>
+      </c>
+      <c r="N36">
+        <v>1.00001236883566</v>
+      </c>
+      <c r="O36">
+        <v>1.000007332313234</v>
+      </c>
+      <c r="P36">
+        <v>0.9999981068869571</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999981068869571</v>
+      </c>
+      <c r="R36">
+        <v>0.9999909759126056</v>
+      </c>
+      <c r="S36">
+        <v>0.9999909759126056</v>
+      </c>
+      <c r="T36">
+        <v>1.00000516229142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.999827667621626</v>
+      </c>
+      <c r="D37">
+        <v>1.000077235815577</v>
+      </c>
+      <c r="E37">
+        <v>1.000024110577538</v>
+      </c>
+      <c r="F37">
+        <v>0.999827667621626</v>
+      </c>
+      <c r="G37">
+        <v>1.000039597384875</v>
+      </c>
+      <c r="H37">
+        <v>1.000077235815577</v>
+      </c>
+      <c r="I37">
+        <v>0.999917512994546</v>
+      </c>
+      <c r="J37">
+        <v>1.000054172939703</v>
+      </c>
+      <c r="K37">
+        <v>1.000077235815577</v>
+      </c>
+      <c r="L37">
+        <v>1.000024110577538</v>
+      </c>
+      <c r="M37">
+        <v>0.9999258890995822</v>
+      </c>
+      <c r="N37">
+        <v>0.9999258890995822</v>
+      </c>
+      <c r="O37">
+        <v>0.9999230970645702</v>
+      </c>
+      <c r="P37">
+        <v>0.9999763380049137</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999763380049137</v>
+      </c>
+      <c r="R37">
+        <v>1.00000156245758</v>
+      </c>
+      <c r="S37">
+        <v>1.00000156245758</v>
+      </c>
+      <c r="T37">
+        <v>0.9999900495556441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9995240810722342</v>
+      </c>
+      <c r="D38">
+        <v>1.000059354565935</v>
+      </c>
+      <c r="E38">
+        <v>1.0001521066467</v>
+      </c>
+      <c r="F38">
+        <v>0.9995240810722342</v>
+      </c>
+      <c r="G38">
+        <v>1.000125061802061</v>
+      </c>
+      <c r="H38">
+        <v>1.000059354565935</v>
+      </c>
+      <c r="I38">
+        <v>0.9997167818266373</v>
+      </c>
+      <c r="J38">
+        <v>1.000423278353925</v>
+      </c>
+      <c r="K38">
+        <v>1.000059354565935</v>
+      </c>
+      <c r="L38">
+        <v>1.0001521066467</v>
+      </c>
+      <c r="M38">
+        <v>0.9998380938594673</v>
+      </c>
+      <c r="N38">
+        <v>0.9998380938594673</v>
+      </c>
+      <c r="O38">
+        <v>0.9997976565151907</v>
+      </c>
+      <c r="P38">
+        <v>0.9999118474282899</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999118474282899</v>
+      </c>
+      <c r="R38">
+        <v>0.9999487242127012</v>
+      </c>
+      <c r="S38">
+        <v>0.9999487242127012</v>
+      </c>
+      <c r="T38">
+        <v>1.000000110711249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9989591111822494</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000018726335561</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.00039438547508</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9989591111822494</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000284866614215</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000018726335561</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.999340569704417</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.001123259853363</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000018726335561</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.00039438547508</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9996767483286646</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9996767483286646</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9995646887872488</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.99979074099763</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9997907409976302</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9998477373321129</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9998477373321129</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000020153194147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9633309844282398</v>
+      </c>
+      <c r="D40">
+        <v>1.007968305216217</v>
+      </c>
+      <c r="E40">
+        <v>1.009833335707017</v>
+      </c>
+      <c r="F40">
+        <v>0.9633309844282398</v>
+      </c>
+      <c r="G40">
+        <v>1.009289595769316</v>
+      </c>
+      <c r="H40">
+        <v>1.007968305216217</v>
+      </c>
+      <c r="I40">
+        <v>0.9794004221474544</v>
+      </c>
+      <c r="J40">
+        <v>1.026577469507828</v>
+      </c>
+      <c r="K40">
+        <v>1.007968305216217</v>
+      </c>
+      <c r="L40">
+        <v>1.009833335707017</v>
+      </c>
+      <c r="M40">
+        <v>0.9865821600676283</v>
+      </c>
+      <c r="N40">
+        <v>0.9865821600676283</v>
+      </c>
+      <c r="O40">
+        <v>0.9841882474275704</v>
+      </c>
+      <c r="P40">
+        <v>0.9937108751171578</v>
+      </c>
+      <c r="Q40">
+        <v>0.9937108751171578</v>
+      </c>
+      <c r="R40">
+        <v>0.9972752326419225</v>
+      </c>
+      <c r="S40">
+        <v>0.9972752326419225</v>
+      </c>
+      <c r="T40">
+        <v>0.9994000187960119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000247783647098</v>
+      </c>
+      <c r="D41">
+        <v>1.000094607557393</v>
+      </c>
+      <c r="E41">
+        <v>0.9998510819509954</v>
+      </c>
+      <c r="F41">
+        <v>1.000247783647098</v>
+      </c>
+      <c r="G41">
+        <v>0.999922077567065</v>
+      </c>
+      <c r="H41">
+        <v>1.000094607557393</v>
+      </c>
+      <c r="I41">
+        <v>1.000192642318082</v>
+      </c>
+      <c r="J41">
+        <v>0.9995564931890436</v>
+      </c>
+      <c r="K41">
+        <v>1.000094607557393</v>
+      </c>
+      <c r="L41">
+        <v>0.9998510819509954</v>
+      </c>
+      <c r="M41">
+        <v>1.000049432799047</v>
+      </c>
+      <c r="N41">
+        <v>1.000049432799047</v>
+      </c>
+      <c r="O41">
+        <v>1.000097169305392</v>
+      </c>
+      <c r="P41">
+        <v>1.000064491051829</v>
+      </c>
+      <c r="Q41">
+        <v>1.000064491051829</v>
+      </c>
+      <c r="R41">
+        <v>1.00007202017822</v>
+      </c>
+      <c r="S41">
+        <v>1.00007202017822</v>
+      </c>
+      <c r="T41">
+        <v>0.9999774477049463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9633903903929549</v>
+      </c>
+      <c r="D42">
+        <v>1.007847776785842</v>
+      </c>
+      <c r="E42">
+        <v>1.009877192982564</v>
+      </c>
+      <c r="F42">
+        <v>0.9633903903929549</v>
+      </c>
+      <c r="G42">
+        <v>1.009285526657371</v>
+      </c>
+      <c r="H42">
+        <v>1.007847776785842</v>
+      </c>
+      <c r="I42">
+        <v>0.9793950519530396</v>
+      </c>
+      <c r="J42">
+        <v>1.026725733025356</v>
+      </c>
+      <c r="K42">
+        <v>1.007847776785842</v>
+      </c>
+      <c r="L42">
+        <v>1.009877192982564</v>
+      </c>
+      <c r="M42">
+        <v>0.9866337916877594</v>
+      </c>
+      <c r="N42">
+        <v>0.9866337916877594</v>
+      </c>
+      <c r="O42">
+        <v>0.9842208784428528</v>
+      </c>
+      <c r="P42">
+        <v>0.9937051200537871</v>
+      </c>
+      <c r="Q42">
+        <v>0.9937051200537872</v>
+      </c>
+      <c r="R42">
+        <v>0.997240784236801</v>
+      </c>
+      <c r="S42">
+        <v>0.997240784236801</v>
+      </c>
+      <c r="T42">
+        <v>0.9994202786328548</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000476056317308</v>
+        <v>0.9996272779419261</v>
       </c>
       <c r="D3">
-        <v>0.9982799377565358</v>
+        <v>1.000090835784287</v>
       </c>
       <c r="E3">
-        <v>1.000404438691346</v>
+        <v>1.000094485157768</v>
       </c>
       <c r="F3">
-        <v>1.000476056317308</v>
+        <v>0.9996272779419261</v>
       </c>
       <c r="G3">
-        <v>1.00106485767717</v>
+        <v>1.000093419366104</v>
       </c>
       <c r="H3">
-        <v>0.9990705411895463</v>
+        <v>1.000090835784287</v>
       </c>
       <c r="I3">
-        <v>1.000425317390174</v>
+        <v>0.9997941598901109</v>
       </c>
       <c r="J3">
-        <v>0.9982799377565358</v>
+        <v>1.000252649490512</v>
       </c>
       <c r="K3">
-        <v>1.000476056317308</v>
+        <v>1.000090835784287</v>
       </c>
       <c r="L3">
-        <v>1.000404438691346</v>
+        <v>1.000094485157768</v>
       </c>
       <c r="M3">
-        <v>0.9993421882239406</v>
+        <v>0.9998608815498469</v>
       </c>
       <c r="N3">
-        <v>0.9993421882239406</v>
+        <v>0.9998608815498469</v>
       </c>
       <c r="O3">
-        <v>0.9992516392124758</v>
+        <v>0.9998386409966016</v>
       </c>
       <c r="P3">
-        <v>0.9997201442550629</v>
+        <v>0.9999375329613268</v>
       </c>
       <c r="Q3">
-        <v>0.9997201442550631</v>
+        <v>0.999937532961327</v>
       </c>
       <c r="R3">
-        <v>0.9999091222706242</v>
+        <v>0.999975858667067</v>
       </c>
       <c r="S3">
-        <v>0.9999091222706242</v>
+        <v>0.999975858667067</v>
       </c>
       <c r="T3">
-        <v>0.9999535248370134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999921379384514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000923553710478</v>
+        <v>0.9633309844282398</v>
       </c>
       <c r="D4">
-        <v>0.9966766523396744</v>
+        <v>1.007968305216217</v>
       </c>
       <c r="E4">
-        <v>1.000779329273812</v>
+        <v>1.009833335707017</v>
       </c>
       <c r="F4">
-        <v>1.000923553710478</v>
+        <v>0.9633309844282398</v>
       </c>
       <c r="G4">
-        <v>1.002050737003951</v>
+        <v>1.009289595769316</v>
       </c>
       <c r="H4">
-        <v>0.9982055355943446</v>
+        <v>1.007968305216217</v>
       </c>
       <c r="I4">
-        <v>1.000821375954499</v>
+        <v>0.9794004221474544</v>
       </c>
       <c r="J4">
-        <v>0.9966766523396744</v>
+        <v>1.026577469507828</v>
       </c>
       <c r="K4">
-        <v>1.000923553710478</v>
+        <v>1.007968305216217</v>
       </c>
       <c r="L4">
-        <v>1.000779329273812</v>
+        <v>1.009833335707017</v>
       </c>
       <c r="M4">
-        <v>0.9987279908067431</v>
+        <v>0.9865821600676283</v>
       </c>
       <c r="N4">
-        <v>0.9987279908067431</v>
+        <v>0.9865821600676283</v>
       </c>
       <c r="O4">
-        <v>0.998553839069277</v>
+        <v>0.9841882474275704</v>
       </c>
       <c r="P4">
-        <v>0.9994598451079882</v>
+        <v>0.9937108751171578</v>
       </c>
       <c r="Q4">
-        <v>0.9994598451079882</v>
+        <v>0.9937108751171578</v>
       </c>
       <c r="R4">
-        <v>0.9998257722586107</v>
+        <v>0.9972752326419225</v>
       </c>
       <c r="S4">
-        <v>0.9998257722586107</v>
+        <v>0.9972752326419225</v>
       </c>
       <c r="T4">
-        <v>0.9999095306461264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9994000187960119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001749985491743</v>
+        <v>0.9814250774351577</v>
       </c>
       <c r="D5">
-        <v>0.9936434537652612</v>
+        <v>1.004296933443803</v>
       </c>
       <c r="E5">
-        <v>1.001499772943195</v>
+        <v>1.004836399956771</v>
       </c>
       <c r="F5">
-        <v>1.001749985491743</v>
+        <v>0.9814250774351577</v>
       </c>
       <c r="G5">
-        <v>1.003951747900105</v>
+        <v>1.004679118573487</v>
       </c>
       <c r="H5">
-        <v>0.9965618044278711</v>
+        <v>1.004296933443803</v>
       </c>
       <c r="I5">
-        <v>1.001572723034479</v>
+        <v>0.9896589456484134</v>
       </c>
       <c r="J5">
-        <v>0.9936434537652612</v>
+        <v>1.012999810662824</v>
       </c>
       <c r="K5">
-        <v>1.001749985491743</v>
+        <v>1.004296933443803</v>
       </c>
       <c r="L5">
-        <v>1.001499772943195</v>
+        <v>1.004836399956771</v>
       </c>
       <c r="M5">
-        <v>0.9975716133542282</v>
+        <v>0.9931307386959645</v>
       </c>
       <c r="N5">
-        <v>0.9975716133542282</v>
+        <v>0.9931307386959645</v>
       </c>
       <c r="O5">
-        <v>0.9972350103787758</v>
+        <v>0.9919734743467807</v>
       </c>
       <c r="P5">
-        <v>0.9989644040667329</v>
+        <v>0.9968528036119108</v>
       </c>
       <c r="Q5">
-        <v>0.9989644040667329</v>
+        <v>0.9968528036119108</v>
       </c>
       <c r="R5">
-        <v>0.9996607994229854</v>
+        <v>0.9987138360698838</v>
       </c>
       <c r="S5">
-        <v>0.9996607994229854</v>
+        <v>0.9987138360698838</v>
       </c>
       <c r="T5">
-        <v>0.9998299145937756</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9996493809534095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002558011938856</v>
+        <v>0.9422567956309718</v>
       </c>
       <c r="D6">
-        <v>0.9906823088186869</v>
+        <v>1.012431056042788</v>
       </c>
       <c r="E6">
-        <v>1.002202430795009</v>
+        <v>1.015549570266414</v>
       </c>
       <c r="F6">
-        <v>1.002558011938856</v>
+        <v>0.9422567956309718</v>
       </c>
       <c r="G6">
-        <v>1.005805421037268</v>
+        <v>1.014640369774835</v>
       </c>
       <c r="H6">
-        <v>0.9949575535931809</v>
+        <v>1.012431056042788</v>
       </c>
       <c r="I6">
-        <v>1.002306101856046</v>
+        <v>0.9675195292481046</v>
       </c>
       <c r="J6">
-        <v>0.9906823088186869</v>
+        <v>1.042059455566767</v>
       </c>
       <c r="K6">
-        <v>1.002558011938856</v>
+        <v>1.012431056042788</v>
       </c>
       <c r="L6">
-        <v>1.002202430795009</v>
+        <v>1.015549570266414</v>
       </c>
       <c r="M6">
-        <v>0.9964423698068477</v>
+        <v>0.9789031829486929</v>
       </c>
       <c r="N6">
-        <v>0.9964423698068477</v>
+        <v>0.9789031829486929</v>
       </c>
       <c r="O6">
-        <v>0.9959474310689588</v>
+        <v>0.9751086317151635</v>
       </c>
       <c r="P6">
-        <v>0.9984809171841839</v>
+        <v>0.9900791406467245</v>
       </c>
       <c r="Q6">
-        <v>0.9984809171841839</v>
+        <v>0.9900791406467245</v>
       </c>
       <c r="R6">
-        <v>0.9995001908728518</v>
+        <v>0.9956671194957403</v>
       </c>
       <c r="S6">
-        <v>0.9995001908728518</v>
+        <v>0.9956671194957403</v>
       </c>
       <c r="T6">
-        <v>0.9997519713398408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9990761294216468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000029566178476</v>
+        <v>0.9977280071168008</v>
       </c>
       <c r="D7">
-        <v>0.9998724793563917</v>
+        <v>1.000650273638716</v>
       </c>
       <c r="E7">
-        <v>1.000033167488457</v>
+        <v>1.000522290617612</v>
       </c>
       <c r="F7">
-        <v>1.000029566178476</v>
+        <v>0.9977280071168008</v>
       </c>
       <c r="G7">
-        <v>1.000089126808395</v>
+        <v>1.000559601888265</v>
       </c>
       <c r="H7">
-        <v>0.9999290319082419</v>
+        <v>1.000650273638716</v>
       </c>
       <c r="I7">
-        <v>1.000032115832983</v>
+        <v>0.9987800234909371</v>
       </c>
       <c r="J7">
-        <v>0.9998724793563917</v>
+        <v>1.001368394783448</v>
       </c>
       <c r="K7">
-        <v>1.000029566178476</v>
+        <v>1.000650273638716</v>
       </c>
       <c r="L7">
-        <v>1.000033167488457</v>
+        <v>1.000522290617612</v>
       </c>
       <c r="M7">
-        <v>0.9999528234224242</v>
+        <v>0.9991251488672066</v>
       </c>
       <c r="N7">
-        <v>0.9999528234224242</v>
+        <v>0.9991251488672066</v>
       </c>
       <c r="O7">
-        <v>0.9999448929176967</v>
+        <v>0.9990101070751168</v>
       </c>
       <c r="P7">
-        <v>0.9999784043411083</v>
+        <v>0.9996335237910429</v>
       </c>
       <c r="Q7">
-        <v>0.9999784043411082</v>
+        <v>0.9996335237910429</v>
       </c>
       <c r="R7">
-        <v>0.9999911948004503</v>
+        <v>0.9998877112529611</v>
       </c>
       <c r="S7">
-        <v>0.9999911948004503</v>
+        <v>0.9998877112529611</v>
       </c>
       <c r="T7">
-        <v>0.9999975812621574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999347652559631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000090835784287</v>
+        <v>0.999827667621626</v>
       </c>
       <c r="D8">
-        <v>0.9996272779419261</v>
+        <v>1.000077235815577</v>
       </c>
       <c r="E8">
-        <v>1.000094485157768</v>
+        <v>1.000024110577538</v>
       </c>
       <c r="F8">
-        <v>1.000090835784287</v>
+        <v>0.999827667621626</v>
       </c>
       <c r="G8">
-        <v>1.000252649490512</v>
+        <v>1.000039597384875</v>
       </c>
       <c r="H8">
-        <v>0.9997941598901109</v>
+        <v>1.000077235815577</v>
       </c>
       <c r="I8">
-        <v>1.000093419366104</v>
+        <v>0.999917512994546</v>
       </c>
       <c r="J8">
-        <v>0.9996272779419261</v>
+        <v>1.000054172939703</v>
       </c>
       <c r="K8">
-        <v>1.000090835784287</v>
+        <v>1.000077235815577</v>
       </c>
       <c r="L8">
-        <v>1.000094485157768</v>
+        <v>1.000024110577538</v>
       </c>
       <c r="M8">
-        <v>0.9998608815498469</v>
+        <v>0.9999258890995822</v>
       </c>
       <c r="N8">
-        <v>0.9998608815498469</v>
+        <v>0.9999258890995822</v>
       </c>
       <c r="O8">
-        <v>0.9998386409966016</v>
+        <v>0.9999230970645702</v>
       </c>
       <c r="P8">
-        <v>0.999937532961327</v>
+        <v>0.9999763380049137</v>
       </c>
       <c r="Q8">
-        <v>0.999937532961327</v>
+        <v>0.9999763380049137</v>
       </c>
       <c r="R8">
-        <v>0.9999758586670671</v>
+        <v>1.00000156245758</v>
       </c>
       <c r="S8">
-        <v>0.9999758586670671</v>
+        <v>1.00000156245758</v>
       </c>
       <c r="T8">
-        <v>0.9999921379384514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999900495556441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000134200069529</v>
+        <v>0.9966766523396744</v>
       </c>
       <c r="D9">
-        <v>0.9994802452228474</v>
+        <v>1.000923553710478</v>
       </c>
       <c r="E9">
-        <v>1.000127572990779</v>
+        <v>1.000779329273812</v>
       </c>
       <c r="F9">
-        <v>1.000134200069529</v>
+        <v>0.9966766523396744</v>
       </c>
       <c r="G9">
-        <v>1.000338927894105</v>
+        <v>1.000821375954498</v>
       </c>
       <c r="H9">
-        <v>0.9997156696808389</v>
+        <v>1.000923553710478</v>
       </c>
       <c r="I9">
-        <v>1.000129503083781</v>
+        <v>0.9982055355943446</v>
       </c>
       <c r="J9">
-        <v>0.9994802452228474</v>
+        <v>1.002050737003951</v>
       </c>
       <c r="K9">
-        <v>1.000134200069529</v>
+        <v>1.000923553710478</v>
       </c>
       <c r="L9">
-        <v>1.000127572990779</v>
+        <v>1.000779329273812</v>
       </c>
       <c r="M9">
-        <v>0.9998039091068134</v>
+        <v>0.9987279908067432</v>
       </c>
       <c r="N9">
-        <v>0.9998039091068134</v>
+        <v>0.9987279908067432</v>
       </c>
       <c r="O9">
-        <v>0.9997744959648219</v>
+        <v>0.998553839069277</v>
       </c>
       <c r="P9">
-        <v>0.9999140060943853</v>
+        <v>0.9994598451079882</v>
       </c>
       <c r="Q9">
-        <v>0.9999140060943853</v>
+        <v>0.9994598451079882</v>
       </c>
       <c r="R9">
-        <v>0.9999690545881712</v>
+        <v>0.9998257722586107</v>
       </c>
       <c r="S9">
-        <v>0.9999690545881712</v>
+        <v>0.9998257722586107</v>
       </c>
       <c r="T9">
-        <v>0.9999876864903134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999095306461264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000279236450041</v>
+        <v>0.9414229394537309</v>
       </c>
       <c r="D10">
-        <v>0.9988832735210841</v>
+        <v>1.012577007714292</v>
       </c>
       <c r="E10">
-        <v>1.000279151635515</v>
+        <v>1.015792764705424</v>
       </c>
       <c r="F10">
-        <v>1.000279236450041</v>
+        <v>0.9414229394537309</v>
       </c>
       <c r="G10">
-        <v>1.000744382207297</v>
+        <v>1.014855213102752</v>
       </c>
       <c r="H10">
-        <v>0.9993858221296119</v>
+        <v>1.012577007714292</v>
       </c>
       <c r="I10">
-        <v>1.000279174321097</v>
+        <v>0.9670384032641333</v>
       </c>
       <c r="J10">
-        <v>0.9988832735210841</v>
+        <v>1.042726494336303</v>
       </c>
       <c r="K10">
-        <v>1.000279236450041</v>
+        <v>1.012577007714292</v>
       </c>
       <c r="L10">
-        <v>1.000279151635515</v>
+        <v>1.015792764705424</v>
       </c>
       <c r="M10">
-        <v>0.9995812125782995</v>
+        <v>0.9786078520795776</v>
       </c>
       <c r="N10">
-        <v>0.9995812125782995</v>
+        <v>0.9786078520795776</v>
       </c>
       <c r="O10">
-        <v>0.9995160824287369</v>
+        <v>0.9747513691410962</v>
       </c>
       <c r="P10">
-        <v>0.9998138872022132</v>
+        <v>0.9899309039578158</v>
       </c>
       <c r="Q10">
-        <v>0.9998138872022132</v>
+        <v>0.9899309039578156</v>
       </c>
       <c r="R10">
-        <v>0.9999302245141701</v>
+        <v>0.9955924298969347</v>
       </c>
       <c r="S10">
-        <v>0.9999302245141701</v>
+        <v>0.9955924298969347</v>
       </c>
       <c r="T10">
-        <v>0.9999751733774408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9990688037627726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00049493768731</v>
+        <v>0.9632192618847278</v>
       </c>
       <c r="D11">
-        <v>0.9981130914252366</v>
+        <v>1.008148545747432</v>
       </c>
       <c r="E11">
-        <v>1.000458836110059</v>
+        <v>1.009776649736721</v>
       </c>
       <c r="F11">
-        <v>1.00049493768731</v>
+        <v>0.9632192618847278</v>
       </c>
       <c r="G11">
-        <v>1.001216680772977</v>
+        <v>1.009301983274207</v>
       </c>
       <c r="H11">
-        <v>0.998970555435025</v>
+        <v>1.008148545747432</v>
       </c>
       <c r="I11">
-        <v>1.000469360391444</v>
+        <v>0.9793938072493078</v>
       </c>
       <c r="J11">
-        <v>0.9981130914252366</v>
+        <v>1.026381176807755</v>
       </c>
       <c r="K11">
-        <v>1.00049493768731</v>
+        <v>1.008148545747432</v>
       </c>
       <c r="L11">
-        <v>1.000458836110059</v>
+        <v>1.009776649736721</v>
       </c>
       <c r="M11">
-        <v>0.9992859637676479</v>
+        <v>0.9864979558107243</v>
       </c>
       <c r="N11">
-        <v>0.9992859637676479</v>
+        <v>0.9864979558107243</v>
       </c>
       <c r="O11">
-        <v>0.9991808276567736</v>
+        <v>0.9841299062902521</v>
       </c>
       <c r="P11">
-        <v>0.9996889550742019</v>
+        <v>0.9937148191229603</v>
       </c>
       <c r="Q11">
-        <v>0.9996889550742019</v>
+        <v>0.9937148191229603</v>
       </c>
       <c r="R11">
-        <v>0.9998904507274788</v>
+        <v>0.9973232507790784</v>
       </c>
       <c r="S11">
-        <v>0.9998904507274788</v>
+        <v>0.9973232507790784</v>
       </c>
       <c r="T11">
-        <v>0.9999539103036753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.999370237450025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9936042637496323</v>
+        <v>0.9812168112526305</v>
       </c>
       <c r="D12">
-        <v>1.026307230416783</v>
+        <v>1.004116685810524</v>
       </c>
       <c r="E12">
-        <v>0.9933225938083304</v>
+        <v>1.005017532463159</v>
       </c>
       <c r="F12">
-        <v>0.9936042637496323</v>
+        <v>0.9812168112526305</v>
       </c>
       <c r="G12">
-        <v>0.9821399329621439</v>
+        <v>1.004754891431579</v>
       </c>
       <c r="H12">
-        <v>1.01453417301664</v>
+        <v>1.004116685810524</v>
       </c>
       <c r="I12">
-        <v>0.9934047168842154</v>
+        <v>0.9894607652631573</v>
       </c>
       <c r="J12">
-        <v>1.026307230416783</v>
+        <v>1.013551660652631</v>
       </c>
       <c r="K12">
-        <v>0.9936042637496323</v>
+        <v>1.004116685810524</v>
       </c>
       <c r="L12">
-        <v>0.9933225938083304</v>
+        <v>1.005017532463159</v>
       </c>
       <c r="M12">
-        <v>1.009814912112557</v>
+        <v>0.9931171718578947</v>
       </c>
       <c r="N12">
-        <v>1.009814912112557</v>
+        <v>0.9931171718578947</v>
       </c>
       <c r="O12">
-        <v>1.011387999080585</v>
+        <v>0.9918983696596489</v>
       </c>
       <c r="P12">
-        <v>1.004411362658248</v>
+        <v>0.9967836765087713</v>
       </c>
       <c r="Q12">
-        <v>1.004411362658248</v>
+        <v>0.9967836765087713</v>
       </c>
       <c r="R12">
-        <v>1.001709587931094</v>
+        <v>0.9986169288342095</v>
       </c>
       <c r="S12">
-        <v>1.001709587931094</v>
+        <v>0.9986169288342095</v>
       </c>
       <c r="T12">
-        <v>1.000552151806291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9996863911456136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9981876067073272</v>
+        <v>1.011795406307514</v>
       </c>
       <c r="D13">
-        <v>1.006916326509449</v>
+        <v>0.9970798368516831</v>
       </c>
       <c r="E13">
-        <v>0.99831720350967</v>
+        <v>0.9970352128369008</v>
       </c>
       <c r="F13">
-        <v>0.9981876067073272</v>
+        <v>1.011795406307514</v>
       </c>
       <c r="G13">
-        <v>0.9955372268525647</v>
+        <v>0.997048220538639</v>
       </c>
       <c r="H13">
-        <v>1.003773989426914</v>
+        <v>0.9970798368516831</v>
       </c>
       <c r="I13">
-        <v>0.9982794187545455</v>
+        <v>1.006497800636167</v>
       </c>
       <c r="J13">
-        <v>1.006916326509449</v>
+        <v>0.9920854004430368</v>
       </c>
       <c r="K13">
-        <v>0.9981876067073272</v>
+        <v>0.9970798368516831</v>
       </c>
       <c r="L13">
-        <v>0.99831720350967</v>
+        <v>0.9970352128369008</v>
       </c>
       <c r="M13">
-        <v>1.002616765009559</v>
+        <v>1.004415309572207</v>
       </c>
       <c r="N13">
-        <v>1.002616765009559</v>
+        <v>1.004415309572207</v>
       </c>
       <c r="O13">
-        <v>1.003002506482011</v>
+        <v>1.005109473260194</v>
       </c>
       <c r="P13">
-        <v>1.001140378908815</v>
+        <v>1.001970151998699</v>
       </c>
       <c r="Q13">
-        <v>1.001140378908815</v>
+        <v>1.001970151998699</v>
       </c>
       <c r="R13">
-        <v>1.000402185858443</v>
+        <v>1.000747573211945</v>
       </c>
       <c r="S13">
-        <v>1.000402185858443</v>
+        <v>1.000747573211945</v>
       </c>
       <c r="T13">
-        <v>1.000168628626745</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000256979602324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9758128926794662</v>
+        <v>0.8988550199999995</v>
       </c>
       <c r="D14">
-        <v>1.084872540720699</v>
+        <v>1.0216333</v>
       </c>
       <c r="E14">
-        <v>0.980431295704405</v>
+        <v>1.027315700000001</v>
       </c>
       <c r="F14">
-        <v>0.9758128926794662</v>
+        <v>0.8988550199999995</v>
       </c>
       <c r="G14">
-        <v>0.9486964785724048</v>
+        <v>1.025659</v>
       </c>
       <c r="H14">
-        <v>1.045611056808134</v>
+        <v>1.0216333</v>
       </c>
       <c r="I14">
-        <v>0.9790848220696176</v>
+        <v>0.9430552000000019</v>
       </c>
       <c r="J14">
-        <v>1.084872540720699</v>
+        <v>1.073924099999999</v>
       </c>
       <c r="K14">
-        <v>0.9758128926794662</v>
+        <v>1.0216333</v>
       </c>
       <c r="L14">
-        <v>0.980431295704405</v>
+        <v>1.027315700000001</v>
       </c>
       <c r="M14">
-        <v>1.032651918212552</v>
+        <v>0.9630853600000002</v>
       </c>
       <c r="N14">
-        <v>1.032651918212552</v>
+        <v>0.9630853600000002</v>
       </c>
       <c r="O14">
-        <v>1.036971631077746</v>
+        <v>0.9564086400000008</v>
       </c>
       <c r="P14">
-        <v>1.01370557636819</v>
+        <v>0.9826013400000001</v>
       </c>
       <c r="Q14">
-        <v>1.01370557636819</v>
+        <v>0.9826013400000001</v>
       </c>
       <c r="R14">
-        <v>1.004232405446009</v>
+        <v>0.9923593300000001</v>
       </c>
       <c r="S14">
-        <v>1.004232405446009</v>
+        <v>0.9923593300000001</v>
       </c>
       <c r="T14">
-        <v>1.002418181092454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9984070533333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9958976885806454</v>
+        <v>0.88779747</v>
       </c>
       <c r="D15">
-        <v>1.021208642780078</v>
+        <v>1.0396018</v>
       </c>
       <c r="E15">
-        <v>0.9940312578073411</v>
+        <v>1.0216333</v>
       </c>
       <c r="F15">
-        <v>0.9958976885806454</v>
+        <v>0.88779747</v>
       </c>
       <c r="G15">
-        <v>0.983727838486491</v>
+        <v>1.0268719</v>
       </c>
       <c r="H15">
-        <v>1.012096698796497</v>
+        <v>1.0396018</v>
       </c>
       <c r="I15">
-        <v>0.9945754080261084</v>
+        <v>0.94244704</v>
       </c>
       <c r="J15">
-        <v>1.021208642780078</v>
+        <v>1.0542662</v>
       </c>
       <c r="K15">
-        <v>0.9958976885806454</v>
+        <v>1.0396018</v>
       </c>
       <c r="L15">
-        <v>0.9940312578073411</v>
+        <v>1.0216333</v>
       </c>
       <c r="M15">
-        <v>1.00761995029371</v>
+        <v>0.954715385</v>
       </c>
       <c r="N15">
-        <v>1.00761995029371</v>
+        <v>0.954715385</v>
       </c>
       <c r="O15">
-        <v>1.009112199794639</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P15">
-        <v>1.003712529722688</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q15">
-        <v>1.003712529722688</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R15">
-        <v>1.001758819437177</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S15">
-        <v>1.001758819437177</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T15">
-        <v>1.000256255746194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9954362849999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999695829895512</v>
+        <v>0.73238625</v>
       </c>
       <c r="D16">
-        <v>1.000012825186498</v>
+        <v>1.0542662</v>
       </c>
       <c r="E16">
-        <v>1.000011912484822</v>
+        <v>1.0739241</v>
       </c>
       <c r="F16">
-        <v>0.9999695829895512</v>
+        <v>0.73238625</v>
       </c>
       <c r="G16">
-        <v>1.000039824146733</v>
+        <v>1.0681929</v>
       </c>
       <c r="H16">
-        <v>0.9999972592683811</v>
+        <v>1.0542662</v>
       </c>
       <c r="I16">
-        <v>0.9999995696725325</v>
+        <v>0.84826304</v>
       </c>
       <c r="J16">
-        <v>1.000012825186498</v>
+        <v>1.2008753</v>
       </c>
       <c r="K16">
-        <v>0.9999695829895512</v>
+        <v>1.0542662</v>
       </c>
       <c r="L16">
-        <v>1.000011912484822</v>
+        <v>1.0739241</v>
       </c>
       <c r="M16">
-        <v>1.00001236883566</v>
+        <v>0.903155175</v>
       </c>
       <c r="N16">
-        <v>1.00001236883566</v>
+        <v>0.903155175</v>
       </c>
       <c r="O16">
-        <v>1.000007332313234</v>
+        <v>0.8848577966666666</v>
       </c>
       <c r="P16">
-        <v>0.9999981068869571</v>
+        <v>0.9535255166666667</v>
       </c>
       <c r="Q16">
-        <v>0.9999981068869571</v>
+        <v>0.9535255166666667</v>
       </c>
       <c r="R16">
-        <v>0.9999909759126056</v>
+        <v>0.9787106875</v>
       </c>
       <c r="S16">
-        <v>0.9999909759126056</v>
+        <v>0.9787106875</v>
       </c>
       <c r="T16">
-        <v>1.00000516229142</v>
+        <v>0.9963179649999999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000077235815577</v>
+        <v>0.99016125</v>
       </c>
       <c r="D17">
-        <v>0.999827667621626</v>
+        <v>1.0070675</v>
       </c>
       <c r="E17">
-        <v>1.000024110577538</v>
+        <v>0.9998997800000001</v>
       </c>
       <c r="F17">
-        <v>1.000077235815577</v>
+        <v>0.99016125</v>
       </c>
       <c r="G17">
-        <v>1.000054172939703</v>
+        <v>1.0019895</v>
       </c>
       <c r="H17">
-        <v>0.9999175129945456</v>
+        <v>1.0070675</v>
       </c>
       <c r="I17">
-        <v>1.000039597384875</v>
+        <v>0.9962475</v>
       </c>
       <c r="J17">
-        <v>0.999827667621626</v>
+        <v>0.99836747</v>
       </c>
       <c r="K17">
-        <v>1.000077235815577</v>
+        <v>1.0070675</v>
       </c>
       <c r="L17">
-        <v>1.000024110577538</v>
+        <v>0.9998997800000001</v>
       </c>
       <c r="M17">
-        <v>0.9999258890995822</v>
+        <v>0.9950305150000001</v>
       </c>
       <c r="N17">
-        <v>0.9999258890995822</v>
+        <v>0.9950305150000001</v>
       </c>
       <c r="O17">
-        <v>0.9999230970645701</v>
+        <v>0.9954361766666667</v>
       </c>
       <c r="P17">
-        <v>0.9999763380049137</v>
+        <v>0.9990428433333335</v>
       </c>
       <c r="Q17">
-        <v>0.9999763380049137</v>
+        <v>0.9990428433333335</v>
       </c>
       <c r="R17">
-        <v>1.00000156245758</v>
+        <v>1.0010490075</v>
       </c>
       <c r="S17">
-        <v>1.00000156245758</v>
+        <v>1.0010490075</v>
       </c>
       <c r="T17">
-        <v>0.9999900495556441</v>
+        <v>0.9989555000000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000059354565936</v>
+        <v>0.959251740684932</v>
       </c>
       <c r="D18">
-        <v>0.9995240810722342</v>
+        <v>1.011471202739726</v>
       </c>
       <c r="E18">
-        <v>1.0001521066467</v>
+        <v>1.009473645205479</v>
       </c>
       <c r="F18">
-        <v>1.000059354565936</v>
+        <v>0.959251740684932</v>
       </c>
       <c r="G18">
-        <v>1.000423278353925</v>
+        <v>1.010056030410959</v>
       </c>
       <c r="H18">
-        <v>0.9997167818266369</v>
+        <v>1.011471202739726</v>
       </c>
       <c r="I18">
-        <v>1.000125061802061</v>
+        <v>0.9780507391780822</v>
       </c>
       <c r="J18">
-        <v>0.9995240810722342</v>
+        <v>1.024882579178083</v>
       </c>
       <c r="K18">
-        <v>1.000059354565936</v>
+        <v>1.011471202739726</v>
       </c>
       <c r="L18">
-        <v>1.0001521066467</v>
+        <v>1.009473645205479</v>
       </c>
       <c r="M18">
-        <v>0.9998380938594673</v>
+        <v>0.9843626929452056</v>
       </c>
       <c r="N18">
-        <v>0.9998380938594673</v>
+        <v>0.9843626929452056</v>
       </c>
       <c r="O18">
-        <v>0.9997976565151906</v>
+        <v>0.9822587083561644</v>
       </c>
       <c r="P18">
-        <v>0.9999118474282901</v>
+        <v>0.9933988628767124</v>
       </c>
       <c r="Q18">
-        <v>0.9999118474282901</v>
+        <v>0.9933988628767126</v>
       </c>
       <c r="R18">
-        <v>0.9999487242127014</v>
+        <v>0.997916947842466</v>
       </c>
       <c r="S18">
-        <v>0.9999487242127014</v>
+        <v>0.997916947842466</v>
       </c>
       <c r="T18">
-        <v>1.000000110711249</v>
+        <v>0.9988643228995436</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000018726335561</v>
+        <v>0.9559060231578946</v>
       </c>
       <c r="D19">
-        <v>0.9989591111822494</v>
+        <v>1.007175040526316</v>
       </c>
       <c r="E19">
-        <v>1.00039438547508</v>
+        <v>1.013161517894737</v>
       </c>
       <c r="F19">
-        <v>1.000018726335561</v>
+        <v>0.9559060231578946</v>
       </c>
       <c r="G19">
-        <v>1.001123259853363</v>
+        <v>1.011416189473684</v>
       </c>
       <c r="H19">
-        <v>0.9993405697044173</v>
+        <v>1.007175040526316</v>
       </c>
       <c r="I19">
-        <v>1.000284866614215</v>
+        <v>0.9743628705263159</v>
       </c>
       <c r="J19">
-        <v>0.9989591111822494</v>
+        <v>1.036237676842105</v>
       </c>
       <c r="K19">
-        <v>1.000018726335561</v>
+        <v>1.007175040526316</v>
       </c>
       <c r="L19">
-        <v>1.00039438547508</v>
+        <v>1.013161517894737</v>
       </c>
       <c r="M19">
-        <v>0.9996767483286646</v>
+        <v>0.9845337705263157</v>
       </c>
       <c r="N19">
-        <v>0.9996767483286646</v>
+        <v>0.9845337705263157</v>
       </c>
       <c r="O19">
-        <v>0.9995646887872489</v>
+        <v>0.9811434705263157</v>
       </c>
       <c r="P19">
-        <v>0.99979074099763</v>
+        <v>0.9920808605263157</v>
       </c>
       <c r="Q19">
-        <v>0.9997907409976302</v>
+        <v>0.9920808605263157</v>
       </c>
       <c r="R19">
-        <v>0.9998477373321129</v>
+        <v>0.9958544055263158</v>
       </c>
       <c r="S19">
-        <v>0.9998477373321129</v>
+        <v>0.9958544055263158</v>
       </c>
       <c r="T19">
-        <v>1.000020153194148</v>
+        <v>0.9997098864035087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.8933262410526317</v>
+      </c>
+      <c r="D20">
+        <v>1.030617573684211</v>
+      </c>
+      <c r="E20">
+        <v>1.024474484210526</v>
+      </c>
+      <c r="F20">
+        <v>0.8933262410526317</v>
+      </c>
+      <c r="G20">
+        <v>1.026265457894737</v>
+      </c>
+      <c r="H20">
+        <v>1.030617573684211</v>
+      </c>
+      <c r="I20">
+        <v>0.9427511200000002</v>
+      </c>
+      <c r="J20">
+        <v>1.06409517368421</v>
+      </c>
+      <c r="K20">
+        <v>1.030617573684211</v>
+      </c>
+      <c r="L20">
+        <v>1.024474484210526</v>
+      </c>
+      <c r="M20">
+        <v>0.958900362631579</v>
+      </c>
+      <c r="N20">
+        <v>0.958900362631579</v>
+      </c>
+      <c r="O20">
+        <v>0.9535172817543861</v>
+      </c>
+      <c r="P20">
+        <v>0.9828060996491228</v>
+      </c>
+      <c r="Q20">
+        <v>0.9828060996491228</v>
+      </c>
+      <c r="R20">
+        <v>0.9947589681578948</v>
+      </c>
+      <c r="S20">
+        <v>0.9947589681578948</v>
+      </c>
+      <c r="T20">
+        <v>0.9969216750877193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.084872540720699</v>
+      </c>
+      <c r="D21">
+        <v>0.9758128926794662</v>
+      </c>
+      <c r="E21">
+        <v>0.980431295704405</v>
+      </c>
+      <c r="F21">
+        <v>1.084872540720699</v>
+      </c>
+      <c r="G21">
+        <v>0.9790848220696176</v>
+      </c>
+      <c r="H21">
+        <v>0.9758128926794662</v>
+      </c>
+      <c r="I21">
+        <v>1.045611056808134</v>
+      </c>
+      <c r="J21">
+        <v>0.9486964785724048</v>
+      </c>
+      <c r="K21">
+        <v>0.9758128926794662</v>
+      </c>
+      <c r="L21">
+        <v>0.980431295704405</v>
+      </c>
+      <c r="M21">
+        <v>1.032651918212552</v>
+      </c>
+      <c r="N21">
+        <v>1.032651918212552</v>
+      </c>
+      <c r="O21">
+        <v>1.036971631077746</v>
+      </c>
+      <c r="P21">
+        <v>1.01370557636819</v>
+      </c>
+      <c r="Q21">
+        <v>1.01370557636819</v>
+      </c>
+      <c r="R21">
+        <v>1.004232405446009</v>
+      </c>
+      <c r="S21">
+        <v>1.004232405446009</v>
+      </c>
+      <c r="T21">
+        <v>1.002418181092454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.021208642780078</v>
+      </c>
+      <c r="D22">
+        <v>0.9958976885806454</v>
+      </c>
+      <c r="E22">
+        <v>0.9940312578073411</v>
+      </c>
+      <c r="F22">
+        <v>1.021208642780078</v>
+      </c>
+      <c r="G22">
+        <v>0.9945754080261084</v>
+      </c>
+      <c r="H22">
+        <v>0.9958976885806454</v>
+      </c>
+      <c r="I22">
+        <v>1.012096698796497</v>
+      </c>
+      <c r="J22">
+        <v>0.983727838486491</v>
+      </c>
+      <c r="K22">
+        <v>0.9958976885806454</v>
+      </c>
+      <c r="L22">
+        <v>0.9940312578073411</v>
+      </c>
+      <c r="M22">
+        <v>1.00761995029371</v>
+      </c>
+      <c r="N22">
+        <v>1.00761995029371</v>
+      </c>
+      <c r="O22">
+        <v>1.009112199794639</v>
+      </c>
+      <c r="P22">
+        <v>1.003712529722688</v>
+      </c>
+      <c r="Q22">
+        <v>1.003712529722688</v>
+      </c>
+      <c r="R22">
+        <v>1.001758819437177</v>
+      </c>
+      <c r="S22">
+        <v>1.001758819437177</v>
+      </c>
+      <c r="T22">
+        <v>1.000256255746194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.026307230416782</v>
+      </c>
+      <c r="D23">
+        <v>0.9936042637496323</v>
+      </c>
+      <c r="E23">
+        <v>0.9933225938083304</v>
+      </c>
+      <c r="F23">
+        <v>1.026307230416782</v>
+      </c>
+      <c r="G23">
+        <v>0.9934047168842154</v>
+      </c>
+      <c r="H23">
+        <v>0.9936042637496323</v>
+      </c>
+      <c r="I23">
+        <v>1.01453417301664</v>
+      </c>
+      <c r="J23">
+        <v>0.9821399329621439</v>
+      </c>
+      <c r="K23">
+        <v>0.9936042637496323</v>
+      </c>
+      <c r="L23">
+        <v>0.9933225938083304</v>
+      </c>
+      <c r="M23">
+        <v>1.009814912112556</v>
+      </c>
+      <c r="N23">
+        <v>1.009814912112556</v>
+      </c>
+      <c r="O23">
+        <v>1.011387999080584</v>
+      </c>
+      <c r="P23">
+        <v>1.004411362658248</v>
+      </c>
+      <c r="Q23">
+        <v>1.004411362658248</v>
+      </c>
+      <c r="R23">
+        <v>1.001709587931094</v>
+      </c>
+      <c r="S23">
+        <v>1.001709587931094</v>
+      </c>
+      <c r="T23">
+        <v>1.000552151806291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.006916326509449</v>
+      </c>
+      <c r="D24">
+        <v>0.9981876067073272</v>
+      </c>
+      <c r="E24">
+        <v>0.99831720350967</v>
+      </c>
+      <c r="F24">
+        <v>1.006916326509449</v>
+      </c>
+      <c r="G24">
+        <v>0.9982794187545455</v>
+      </c>
+      <c r="H24">
+        <v>0.9981876067073272</v>
+      </c>
+      <c r="I24">
+        <v>1.003773989426914</v>
+      </c>
+      <c r="J24">
+        <v>0.9955372268525647</v>
+      </c>
+      <c r="K24">
+        <v>0.9981876067073272</v>
+      </c>
+      <c r="L24">
+        <v>0.99831720350967</v>
+      </c>
+      <c r="M24">
+        <v>1.002616765009559</v>
+      </c>
+      <c r="N24">
+        <v>1.002616765009559</v>
+      </c>
+      <c r="O24">
+        <v>1.003002506482011</v>
+      </c>
+      <c r="P24">
+        <v>1.001140378908815</v>
+      </c>
+      <c r="Q24">
+        <v>1.001140378908815</v>
+      </c>
+      <c r="R24">
+        <v>1.000402185858443</v>
+      </c>
+      <c r="S24">
+        <v>1.000402185858443</v>
+      </c>
+      <c r="T24">
+        <v>1.000168628626745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9144735529962644</v>
+      </c>
+      <c r="D25">
+        <v>1.027358947921066</v>
+      </c>
+      <c r="E25">
+        <v>1.018060862214944</v>
+      </c>
+      <c r="F25">
+        <v>0.9144735529962644</v>
+      </c>
+      <c r="G25">
+        <v>1.0207716718042</v>
+      </c>
+      <c r="H25">
+        <v>1.027358947921066</v>
+      </c>
+      <c r="I25">
+        <v>0.9551122940616734</v>
+      </c>
+      <c r="J25">
+        <v>1.04639125490589</v>
+      </c>
+      <c r="K25">
+        <v>1.027358947921066</v>
+      </c>
+      <c r="L25">
+        <v>1.018060862214944</v>
+      </c>
+      <c r="M25">
+        <v>0.966267207605604</v>
+      </c>
+      <c r="N25">
+        <v>0.966267207605604</v>
+      </c>
+      <c r="O25">
+        <v>0.9625489030909605</v>
+      </c>
+      <c r="P25">
+        <v>0.9866311210440916</v>
+      </c>
+      <c r="Q25">
+        <v>0.9866311210440916</v>
+      </c>
+      <c r="R25">
+        <v>0.9968130777633353</v>
+      </c>
+      <c r="S25">
+        <v>0.9968130777633353</v>
+      </c>
+      <c r="T25">
+        <v>0.9970280973173397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9800538844864589</v>
+      </c>
+      <c r="D26">
+        <v>1.002514072909067</v>
+      </c>
+      <c r="E26">
+        <v>1.00636012184036</v>
+      </c>
+      <c r="F26">
+        <v>0.9800538844864589</v>
+      </c>
+      <c r="G26">
+        <v>1.005238823197222</v>
+      </c>
+      <c r="H26">
+        <v>1.002514072909067</v>
+      </c>
+      <c r="I26">
+        <v>0.9881395532656533</v>
+      </c>
+      <c r="J26">
+        <v>1.017692890869404</v>
+      </c>
+      <c r="K26">
+        <v>1.002514072909067</v>
+      </c>
+      <c r="L26">
+        <v>1.00636012184036</v>
+      </c>
+      <c r="M26">
+        <v>0.9932070031634093</v>
+      </c>
+      <c r="N26">
+        <v>0.9932070031634093</v>
+      </c>
+      <c r="O26">
+        <v>0.9915178531974905</v>
+      </c>
+      <c r="P26">
+        <v>0.9963093597452953</v>
+      </c>
+      <c r="Q26">
+        <v>0.9963093597452953</v>
+      </c>
+      <c r="R26">
+        <v>0.9978605380362383</v>
+      </c>
+      <c r="S26">
+        <v>0.9978605380362383</v>
+      </c>
+      <c r="T26">
+        <v>0.9999998910946942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9937528741572775</v>
+      </c>
+      <c r="D27">
+        <v>1.001645022614266</v>
+      </c>
+      <c r="E27">
+        <v>1.001515537225626</v>
+      </c>
+      <c r="F27">
+        <v>0.9937528741572775</v>
+      </c>
+      <c r="G27">
+        <v>1.001553277827893</v>
+      </c>
+      <c r="H27">
+        <v>1.001645022614266</v>
+      </c>
+      <c r="I27">
+        <v>0.9965940396928631</v>
+      </c>
+      <c r="J27">
+        <v>1.004016751099076</v>
+      </c>
+      <c r="K27">
+        <v>1.001645022614266</v>
+      </c>
+      <c r="L27">
+        <v>1.001515537225626</v>
+      </c>
+      <c r="M27">
+        <v>0.9976342056914516</v>
+      </c>
+      <c r="N27">
+        <v>0.9976342056914516</v>
+      </c>
+      <c r="O27">
+        <v>0.9972874836919221</v>
+      </c>
+      <c r="P27">
+        <v>0.998971144665723</v>
+      </c>
+      <c r="Q27">
+        <v>0.998971144665723</v>
+      </c>
+      <c r="R27">
+        <v>0.9996396141528587</v>
+      </c>
+      <c r="S27">
+        <v>0.9996396141528587</v>
+      </c>
+      <c r="T27">
+        <v>0.9998462504361667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9889465237217556</v>
+      </c>
+      <c r="D28">
+        <v>1.003197687525669</v>
+      </c>
+      <c r="E28">
+        <v>1.002522079779784</v>
+      </c>
+      <c r="F28">
+        <v>0.9889465237217556</v>
+      </c>
+      <c r="G28">
+        <v>1.002719046413812</v>
+      </c>
+      <c r="H28">
+        <v>1.003197687525669</v>
+      </c>
+      <c r="I28">
+        <v>0.994076935005174</v>
+      </c>
+      <c r="J28">
+        <v>1.006596862655956</v>
+      </c>
+      <c r="K28">
+        <v>1.003197687525669</v>
+      </c>
+      <c r="L28">
+        <v>1.002522079779784</v>
+      </c>
+      <c r="M28">
+        <v>0.9957343017507697</v>
+      </c>
+      <c r="N28">
+        <v>0.9957343017507697</v>
+      </c>
+      <c r="O28">
+        <v>0.9951818461689045</v>
+      </c>
+      <c r="P28">
+        <v>0.9982220970090697</v>
+      </c>
+      <c r="Q28">
+        <v>0.9982220970090697</v>
+      </c>
+      <c r="R28">
+        <v>0.9994659946382196</v>
+      </c>
+      <c r="S28">
+        <v>0.9994659946382196</v>
+      </c>
+      <c r="T28">
+        <v>0.9996765225170251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.007797868523191</v>
+      </c>
+      <c r="D29">
+        <v>0.9997295528573743</v>
+      </c>
+      <c r="E29">
+        <v>0.9971177448108343</v>
+      </c>
+      <c r="F29">
+        <v>1.007797868523191</v>
+      </c>
+      <c r="G29">
+        <v>0.997879199588278</v>
+      </c>
+      <c r="H29">
+        <v>0.9997295528573743</v>
+      </c>
+      <c r="I29">
+        <v>1.004893264496398</v>
+      </c>
+      <c r="J29">
+        <v>0.9918164984669819</v>
+      </c>
+      <c r="K29">
+        <v>0.9997295528573743</v>
+      </c>
+      <c r="L29">
+        <v>0.9971177448108343</v>
+      </c>
+      <c r="M29">
+        <v>1.002457806667013</v>
+      </c>
+      <c r="N29">
+        <v>1.002457806667013</v>
+      </c>
+      <c r="O29">
+        <v>1.003269625943474</v>
+      </c>
+      <c r="P29">
+        <v>1.001548388730467</v>
+      </c>
+      <c r="Q29">
+        <v>1.001548388730466</v>
+      </c>
+      <c r="R29">
+        <v>1.001093679762193</v>
+      </c>
+      <c r="S29">
+        <v>1.001093679762193</v>
+      </c>
+      <c r="T29">
+        <v>0.9998723547905094</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9633309844282398</v>
+        <v>0.9856866494859337</v>
       </c>
       <c r="D4">
-        <v>1.007968305216217</v>
+        <v>1.003172177542477</v>
       </c>
       <c r="E4">
-        <v>1.009833335707017</v>
+        <v>1.00380398576862</v>
       </c>
       <c r="F4">
-        <v>0.9633309844282398</v>
+        <v>0.9856866494859337</v>
       </c>
       <c r="G4">
-        <v>1.009289595769316</v>
+        <v>1.003619783021732</v>
       </c>
       <c r="H4">
-        <v>1.007968305216217</v>
+        <v>1.003172177542477</v>
       </c>
       <c r="I4">
-        <v>0.9794004221474544</v>
+        <v>0.9919814398771385</v>
       </c>
       <c r="J4">
-        <v>1.026577469507828</v>
+        <v>1.010264297135257</v>
       </c>
       <c r="K4">
-        <v>1.007968305216217</v>
+        <v>1.003172177542477</v>
       </c>
       <c r="L4">
-        <v>1.009833335707017</v>
+        <v>1.00380398576862</v>
       </c>
       <c r="M4">
-        <v>0.9865821600676283</v>
+        <v>0.9947453176272767</v>
       </c>
       <c r="N4">
-        <v>0.9865821600676283</v>
+        <v>0.9947453176272767</v>
       </c>
       <c r="O4">
-        <v>0.9841882474275704</v>
+        <v>0.9938240250438973</v>
       </c>
       <c r="P4">
-        <v>0.9937108751171578</v>
+        <v>0.9975542709323434</v>
       </c>
       <c r="Q4">
-        <v>0.9937108751171578</v>
+        <v>0.9975542709323436</v>
       </c>
       <c r="R4">
-        <v>0.9972752326419225</v>
+        <v>0.9989587475848769</v>
       </c>
       <c r="S4">
-        <v>0.9972752326419225</v>
+        <v>0.9989587475848769</v>
       </c>
       <c r="T4">
-        <v>0.9994000187960119</v>
+        <v>0.9997547221385261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9814250774351577</v>
+        <v>0.8930423090184135</v>
       </c>
       <c r="D5">
-        <v>1.004296933443803</v>
+        <v>1.031078963800421</v>
       </c>
       <c r="E5">
-        <v>1.004836399956771</v>
+        <v>1.024328573234077</v>
       </c>
       <c r="F5">
-        <v>0.9814250774351577</v>
+        <v>0.8930423090184135</v>
       </c>
       <c r="G5">
-        <v>1.004679118573487</v>
+        <v>1.026296604342213</v>
       </c>
       <c r="H5">
-        <v>1.004296933443803</v>
+        <v>1.031078963800421</v>
       </c>
       <c r="I5">
-        <v>0.9896589456484134</v>
+        <v>0.9427355039141989</v>
       </c>
       <c r="J5">
-        <v>1.012999810662824</v>
+        <v>1.063590407046105</v>
       </c>
       <c r="K5">
-        <v>1.004296933443803</v>
+        <v>1.031078963800421</v>
       </c>
       <c r="L5">
-        <v>1.004836399956771</v>
+        <v>1.024328573234077</v>
       </c>
       <c r="M5">
-        <v>0.9931307386959645</v>
+        <v>0.9586854411262455</v>
       </c>
       <c r="N5">
-        <v>0.9931307386959645</v>
+        <v>0.9586854411262455</v>
       </c>
       <c r="O5">
-        <v>0.9919734743467807</v>
+        <v>0.9533687953888966</v>
       </c>
       <c r="P5">
-        <v>0.9968528036119108</v>
+        <v>0.9828166153509706</v>
       </c>
       <c r="Q5">
-        <v>0.9968528036119108</v>
+        <v>0.9828166153509704</v>
       </c>
       <c r="R5">
-        <v>0.9987138360698838</v>
+        <v>0.994882202463333</v>
       </c>
       <c r="S5">
-        <v>0.9987138360698838</v>
+        <v>0.994882202463333</v>
       </c>
       <c r="T5">
-        <v>0.9996493809534095</v>
+        <v>0.9968453935592381</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9422567956309718</v>
+        <v>0.9633309844282398</v>
       </c>
       <c r="D6">
-        <v>1.012431056042788</v>
+        <v>1.007968305216217</v>
       </c>
       <c r="E6">
-        <v>1.015549570266414</v>
+        <v>1.009833335707017</v>
       </c>
       <c r="F6">
-        <v>0.9422567956309718</v>
+        <v>0.9633309844282398</v>
       </c>
       <c r="G6">
-        <v>1.014640369774835</v>
+        <v>1.009289595769316</v>
       </c>
       <c r="H6">
-        <v>1.012431056042788</v>
+        <v>1.007968305216217</v>
       </c>
       <c r="I6">
-        <v>0.9675195292481046</v>
+        <v>0.9794004221474544</v>
       </c>
       <c r="J6">
-        <v>1.042059455566767</v>
+        <v>1.026577469507828</v>
       </c>
       <c r="K6">
-        <v>1.012431056042788</v>
+        <v>1.007968305216217</v>
       </c>
       <c r="L6">
-        <v>1.015549570266414</v>
+        <v>1.009833335707017</v>
       </c>
       <c r="M6">
-        <v>0.9789031829486929</v>
+        <v>0.9865821600676283</v>
       </c>
       <c r="N6">
-        <v>0.9789031829486929</v>
+        <v>0.9865821600676283</v>
       </c>
       <c r="O6">
-        <v>0.9751086317151635</v>
+        <v>0.9841882474275704</v>
       </c>
       <c r="P6">
-        <v>0.9900791406467245</v>
+        <v>0.9937108751171578</v>
       </c>
       <c r="Q6">
-        <v>0.9900791406467245</v>
+        <v>0.9937108751171578</v>
       </c>
       <c r="R6">
-        <v>0.9956671194957403</v>
+        <v>0.9972752326419225</v>
       </c>
       <c r="S6">
-        <v>0.9956671194957403</v>
+        <v>0.9972752326419225</v>
       </c>
       <c r="T6">
-        <v>0.9990761294216468</v>
+        <v>0.9994000187960119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9977280071168008</v>
+        <v>0.9814250774351577</v>
       </c>
       <c r="D7">
-        <v>1.000650273638716</v>
+        <v>1.004296933443803</v>
       </c>
       <c r="E7">
-        <v>1.000522290617612</v>
+        <v>1.004836399956771</v>
       </c>
       <c r="F7">
-        <v>0.9977280071168008</v>
+        <v>0.9814250774351577</v>
       </c>
       <c r="G7">
-        <v>1.000559601888265</v>
+        <v>1.004679118573487</v>
       </c>
       <c r="H7">
-        <v>1.000650273638716</v>
+        <v>1.004296933443803</v>
       </c>
       <c r="I7">
-        <v>0.9987800234909371</v>
+        <v>0.9896589456484134</v>
       </c>
       <c r="J7">
-        <v>1.001368394783448</v>
+        <v>1.012999810662824</v>
       </c>
       <c r="K7">
-        <v>1.000650273638716</v>
+        <v>1.004296933443803</v>
       </c>
       <c r="L7">
-        <v>1.000522290617612</v>
+        <v>1.004836399956771</v>
       </c>
       <c r="M7">
-        <v>0.9991251488672066</v>
+        <v>0.9931307386959645</v>
       </c>
       <c r="N7">
-        <v>0.9991251488672066</v>
+        <v>0.9931307386959645</v>
       </c>
       <c r="O7">
-        <v>0.9990101070751168</v>
+        <v>0.9919734743467807</v>
       </c>
       <c r="P7">
-        <v>0.9996335237910429</v>
+        <v>0.9968528036119108</v>
       </c>
       <c r="Q7">
-        <v>0.9996335237910429</v>
+        <v>0.9968528036119108</v>
       </c>
       <c r="R7">
-        <v>0.9998877112529611</v>
+        <v>0.9987138360698838</v>
       </c>
       <c r="S7">
-        <v>0.9998877112529611</v>
+        <v>0.9987138360698838</v>
       </c>
       <c r="T7">
-        <v>0.9999347652559631</v>
+        <v>0.9996493809534095</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999827667621626</v>
+        <v>0.9422567956309718</v>
       </c>
       <c r="D8">
-        <v>1.000077235815577</v>
+        <v>1.012431056042788</v>
       </c>
       <c r="E8">
-        <v>1.000024110577538</v>
+        <v>1.015549570266414</v>
       </c>
       <c r="F8">
-        <v>0.999827667621626</v>
+        <v>0.9422567956309718</v>
       </c>
       <c r="G8">
-        <v>1.000039597384875</v>
+        <v>1.014640369774835</v>
       </c>
       <c r="H8">
-        <v>1.000077235815577</v>
+        <v>1.012431056042788</v>
       </c>
       <c r="I8">
-        <v>0.999917512994546</v>
+        <v>0.9675195292481046</v>
       </c>
       <c r="J8">
-        <v>1.000054172939703</v>
+        <v>1.042059455566767</v>
       </c>
       <c r="K8">
-        <v>1.000077235815577</v>
+        <v>1.012431056042788</v>
       </c>
       <c r="L8">
-        <v>1.000024110577538</v>
+        <v>1.015549570266414</v>
       </c>
       <c r="M8">
-        <v>0.9999258890995822</v>
+        <v>0.9789031829486929</v>
       </c>
       <c r="N8">
-        <v>0.9999258890995822</v>
+        <v>0.9789031829486929</v>
       </c>
       <c r="O8">
-        <v>0.9999230970645702</v>
+        <v>0.9751086317151635</v>
       </c>
       <c r="P8">
-        <v>0.9999763380049137</v>
+        <v>0.9900791406467245</v>
       </c>
       <c r="Q8">
-        <v>0.9999763380049137</v>
+        <v>0.9900791406467245</v>
       </c>
       <c r="R8">
-        <v>1.00000156245758</v>
+        <v>0.9956671194957403</v>
       </c>
       <c r="S8">
-        <v>1.00000156245758</v>
+        <v>0.9956671194957403</v>
       </c>
       <c r="T8">
-        <v>0.9999900495556441</v>
+        <v>0.9990761294216468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9966766523396744</v>
+        <v>0.9977280071168008</v>
       </c>
       <c r="D9">
-        <v>1.000923553710478</v>
+        <v>1.000650273638716</v>
       </c>
       <c r="E9">
-        <v>1.000779329273812</v>
+        <v>1.000522290617612</v>
       </c>
       <c r="F9">
-        <v>0.9966766523396744</v>
+        <v>0.9977280071168008</v>
       </c>
       <c r="G9">
-        <v>1.000821375954498</v>
+        <v>1.000559601888265</v>
       </c>
       <c r="H9">
-        <v>1.000923553710478</v>
+        <v>1.000650273638716</v>
       </c>
       <c r="I9">
-        <v>0.9982055355943446</v>
+        <v>0.9987800234909371</v>
       </c>
       <c r="J9">
-        <v>1.002050737003951</v>
+        <v>1.001368394783448</v>
       </c>
       <c r="K9">
-        <v>1.000923553710478</v>
+        <v>1.000650273638716</v>
       </c>
       <c r="L9">
-        <v>1.000779329273812</v>
+        <v>1.000522290617612</v>
       </c>
       <c r="M9">
-        <v>0.9987279908067432</v>
+        <v>0.9991251488672066</v>
       </c>
       <c r="N9">
-        <v>0.9987279908067432</v>
+        <v>0.9991251488672066</v>
       </c>
       <c r="O9">
-        <v>0.998553839069277</v>
+        <v>0.9990101070751168</v>
       </c>
       <c r="P9">
-        <v>0.9994598451079882</v>
+        <v>0.9996335237910429</v>
       </c>
       <c r="Q9">
-        <v>0.9994598451079882</v>
+        <v>0.9996335237910429</v>
       </c>
       <c r="R9">
-        <v>0.9998257722586107</v>
+        <v>0.9998877112529611</v>
       </c>
       <c r="S9">
-        <v>0.9998257722586107</v>
+        <v>0.9998877112529611</v>
       </c>
       <c r="T9">
-        <v>0.9999095306461264</v>
+        <v>0.9999347652559631</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9414229394537309</v>
+        <v>0.999827667621626</v>
       </c>
       <c r="D10">
-        <v>1.012577007714292</v>
+        <v>1.000077235815577</v>
       </c>
       <c r="E10">
-        <v>1.015792764705424</v>
+        <v>1.000024110577538</v>
       </c>
       <c r="F10">
-        <v>0.9414229394537309</v>
+        <v>0.999827667621626</v>
       </c>
       <c r="G10">
-        <v>1.014855213102752</v>
+        <v>1.000039597384875</v>
       </c>
       <c r="H10">
-        <v>1.012577007714292</v>
+        <v>1.000077235815577</v>
       </c>
       <c r="I10">
-        <v>0.9670384032641333</v>
+        <v>0.999917512994546</v>
       </c>
       <c r="J10">
-        <v>1.042726494336303</v>
+        <v>1.000054172939703</v>
       </c>
       <c r="K10">
-        <v>1.012577007714292</v>
+        <v>1.000077235815577</v>
       </c>
       <c r="L10">
-        <v>1.015792764705424</v>
+        <v>1.000024110577538</v>
       </c>
       <c r="M10">
-        <v>0.9786078520795776</v>
+        <v>0.9999258890995822</v>
       </c>
       <c r="N10">
-        <v>0.9786078520795776</v>
+        <v>0.9999258890995822</v>
       </c>
       <c r="O10">
-        <v>0.9747513691410962</v>
+        <v>0.9999230970645702</v>
       </c>
       <c r="P10">
-        <v>0.9899309039578158</v>
+        <v>0.9999763380049137</v>
       </c>
       <c r="Q10">
-        <v>0.9899309039578156</v>
+        <v>0.9999763380049137</v>
       </c>
       <c r="R10">
-        <v>0.9955924298969347</v>
+        <v>1.00000156245758</v>
       </c>
       <c r="S10">
-        <v>0.9955924298969347</v>
+        <v>1.00000156245758</v>
       </c>
       <c r="T10">
-        <v>0.9990688037627726</v>
+        <v>0.9999900495556441</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9632192618847278</v>
+        <v>0.9966766523396744</v>
       </c>
       <c r="D11">
-        <v>1.008148545747432</v>
+        <v>1.000923553710478</v>
       </c>
       <c r="E11">
-        <v>1.009776649736721</v>
+        <v>1.000779329273812</v>
       </c>
       <c r="F11">
-        <v>0.9632192618847278</v>
+        <v>0.9966766523396744</v>
       </c>
       <c r="G11">
-        <v>1.009301983274207</v>
+        <v>1.000821375954498</v>
       </c>
       <c r="H11">
-        <v>1.008148545747432</v>
+        <v>1.000923553710478</v>
       </c>
       <c r="I11">
-        <v>0.9793938072493078</v>
+        <v>0.9982055355943446</v>
       </c>
       <c r="J11">
-        <v>1.026381176807755</v>
+        <v>1.002050737003951</v>
       </c>
       <c r="K11">
-        <v>1.008148545747432</v>
+        <v>1.000923553710478</v>
       </c>
       <c r="L11">
-        <v>1.009776649736721</v>
+        <v>1.000779329273812</v>
       </c>
       <c r="M11">
-        <v>0.9864979558107243</v>
+        <v>0.9987279908067432</v>
       </c>
       <c r="N11">
-        <v>0.9864979558107243</v>
+        <v>0.9987279908067432</v>
       </c>
       <c r="O11">
-        <v>0.9841299062902521</v>
+        <v>0.998553839069277</v>
       </c>
       <c r="P11">
-        <v>0.9937148191229603</v>
+        <v>0.9994598451079882</v>
       </c>
       <c r="Q11">
-        <v>0.9937148191229603</v>
+        <v>0.9994598451079882</v>
       </c>
       <c r="R11">
-        <v>0.9973232507790784</v>
+        <v>0.9998257722586107</v>
       </c>
       <c r="S11">
-        <v>0.9973232507790784</v>
+        <v>0.9998257722586107</v>
       </c>
       <c r="T11">
-        <v>0.999370237450025</v>
+        <v>0.9999095306461264</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9812168112526305</v>
+        <v>0.9414229394537309</v>
       </c>
       <c r="D12">
-        <v>1.004116685810524</v>
+        <v>1.012577007714292</v>
       </c>
       <c r="E12">
-        <v>1.005017532463159</v>
+        <v>1.015792764705424</v>
       </c>
       <c r="F12">
-        <v>0.9812168112526305</v>
+        <v>0.9414229394537309</v>
       </c>
       <c r="G12">
-        <v>1.004754891431579</v>
+        <v>1.014855213102752</v>
       </c>
       <c r="H12">
-        <v>1.004116685810524</v>
+        <v>1.012577007714292</v>
       </c>
       <c r="I12">
-        <v>0.9894607652631573</v>
+        <v>0.9670384032641333</v>
       </c>
       <c r="J12">
-        <v>1.013551660652631</v>
+        <v>1.042726494336303</v>
       </c>
       <c r="K12">
-        <v>1.004116685810524</v>
+        <v>1.012577007714292</v>
       </c>
       <c r="L12">
-        <v>1.005017532463159</v>
+        <v>1.015792764705424</v>
       </c>
       <c r="M12">
-        <v>0.9931171718578947</v>
+        <v>0.9786078520795776</v>
       </c>
       <c r="N12">
-        <v>0.9931171718578947</v>
+        <v>0.9786078520795776</v>
       </c>
       <c r="O12">
-        <v>0.9918983696596489</v>
+        <v>0.9747513691410962</v>
       </c>
       <c r="P12">
-        <v>0.9967836765087713</v>
+        <v>0.9899309039578158</v>
       </c>
       <c r="Q12">
-        <v>0.9967836765087713</v>
+        <v>0.9899309039578156</v>
       </c>
       <c r="R12">
-        <v>0.9986169288342095</v>
+        <v>0.9955924298969347</v>
       </c>
       <c r="S12">
-        <v>0.9986169288342095</v>
+        <v>0.9955924298969347</v>
       </c>
       <c r="T12">
-        <v>0.9996863911456136</v>
+        <v>0.9990688037627726</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.011795406307514</v>
+        <v>0.9632192618847278</v>
       </c>
       <c r="D13">
-        <v>0.9970798368516831</v>
+        <v>1.008148545747432</v>
       </c>
       <c r="E13">
-        <v>0.9970352128369008</v>
+        <v>1.009776649736721</v>
       </c>
       <c r="F13">
-        <v>1.011795406307514</v>
+        <v>0.9632192618847278</v>
       </c>
       <c r="G13">
-        <v>0.997048220538639</v>
+        <v>1.009301983274207</v>
       </c>
       <c r="H13">
-        <v>0.9970798368516831</v>
+        <v>1.008148545747432</v>
       </c>
       <c r="I13">
-        <v>1.006497800636167</v>
+        <v>0.9793938072493078</v>
       </c>
       <c r="J13">
-        <v>0.9920854004430368</v>
+        <v>1.026381176807755</v>
       </c>
       <c r="K13">
-        <v>0.9970798368516831</v>
+        <v>1.008148545747432</v>
       </c>
       <c r="L13">
-        <v>0.9970352128369008</v>
+        <v>1.009776649736721</v>
       </c>
       <c r="M13">
-        <v>1.004415309572207</v>
+        <v>0.9864979558107243</v>
       </c>
       <c r="N13">
-        <v>1.004415309572207</v>
+        <v>0.9864979558107243</v>
       </c>
       <c r="O13">
-        <v>1.005109473260194</v>
+        <v>0.9841299062902521</v>
       </c>
       <c r="P13">
-        <v>1.001970151998699</v>
+        <v>0.9937148191229603</v>
       </c>
       <c r="Q13">
-        <v>1.001970151998699</v>
+        <v>0.9937148191229603</v>
       </c>
       <c r="R13">
-        <v>1.000747573211945</v>
+        <v>0.9973232507790784</v>
       </c>
       <c r="S13">
-        <v>1.000747573211945</v>
+        <v>0.9973232507790784</v>
       </c>
       <c r="T13">
-        <v>1.000256979602324</v>
+        <v>0.999370237450025</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8988550199999995</v>
+        <v>0.9812168112526305</v>
       </c>
       <c r="D14">
-        <v>1.0216333</v>
+        <v>1.004116685810524</v>
       </c>
       <c r="E14">
-        <v>1.027315700000001</v>
+        <v>1.005017532463159</v>
       </c>
       <c r="F14">
-        <v>0.8988550199999995</v>
+        <v>0.9812168112526305</v>
       </c>
       <c r="G14">
-        <v>1.025659</v>
+        <v>1.004754891431579</v>
       </c>
       <c r="H14">
-        <v>1.0216333</v>
+        <v>1.004116685810524</v>
       </c>
       <c r="I14">
-        <v>0.9430552000000019</v>
+        <v>0.9894607652631573</v>
       </c>
       <c r="J14">
-        <v>1.073924099999999</v>
+        <v>1.013551660652631</v>
       </c>
       <c r="K14">
-        <v>1.0216333</v>
+        <v>1.004116685810524</v>
       </c>
       <c r="L14">
-        <v>1.027315700000001</v>
+        <v>1.005017532463159</v>
       </c>
       <c r="M14">
-        <v>0.9630853600000002</v>
+        <v>0.9931171718578947</v>
       </c>
       <c r="N14">
-        <v>0.9630853600000002</v>
+        <v>0.9931171718578947</v>
       </c>
       <c r="O14">
-        <v>0.9564086400000008</v>
+        <v>0.9918983696596489</v>
       </c>
       <c r="P14">
-        <v>0.9826013400000001</v>
+        <v>0.9967836765087713</v>
       </c>
       <c r="Q14">
-        <v>0.9826013400000001</v>
+        <v>0.9967836765087713</v>
       </c>
       <c r="R14">
-        <v>0.9923593300000001</v>
+        <v>0.9986169288342095</v>
       </c>
       <c r="S14">
-        <v>0.9923593300000001</v>
+        <v>0.9986169288342095</v>
       </c>
       <c r="T14">
-        <v>0.9984070533333336</v>
+        <v>0.9996863911456136</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.88779747</v>
+        <v>1.011795406307514</v>
       </c>
       <c r="D15">
-        <v>1.0396018</v>
+        <v>0.9970798368516831</v>
       </c>
       <c r="E15">
-        <v>1.0216333</v>
+        <v>0.9970352128369008</v>
       </c>
       <c r="F15">
-        <v>0.88779747</v>
+        <v>1.011795406307514</v>
       </c>
       <c r="G15">
-        <v>1.0268719</v>
+        <v>0.997048220538639</v>
       </c>
       <c r="H15">
-        <v>1.0396018</v>
+        <v>0.9970798368516831</v>
       </c>
       <c r="I15">
-        <v>0.94244704</v>
+        <v>1.006497800636167</v>
       </c>
       <c r="J15">
-        <v>1.0542662</v>
+        <v>0.9920854004430368</v>
       </c>
       <c r="K15">
-        <v>1.0396018</v>
+        <v>0.9970798368516831</v>
       </c>
       <c r="L15">
-        <v>1.0216333</v>
+        <v>0.9970352128369008</v>
       </c>
       <c r="M15">
-        <v>0.954715385</v>
+        <v>1.004415309572207</v>
       </c>
       <c r="N15">
-        <v>0.954715385</v>
+        <v>1.004415309572207</v>
       </c>
       <c r="O15">
-        <v>0.9506259366666666</v>
+        <v>1.005109473260194</v>
       </c>
       <c r="P15">
-        <v>0.9830108566666667</v>
+        <v>1.001970151998699</v>
       </c>
       <c r="Q15">
-        <v>0.9830108566666667</v>
+        <v>1.001970151998699</v>
       </c>
       <c r="R15">
-        <v>0.9971585924999999</v>
+        <v>1.000747573211945</v>
       </c>
       <c r="S15">
-        <v>0.9971585924999999</v>
+        <v>1.000747573211945</v>
       </c>
       <c r="T15">
-        <v>0.9954362849999999</v>
+        <v>1.000256979602324</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.73238625</v>
+        <v>0.8988550199999995</v>
       </c>
       <c r="D16">
-        <v>1.0542662</v>
+        <v>1.0216333</v>
       </c>
       <c r="E16">
-        <v>1.0739241</v>
+        <v>1.027315700000001</v>
       </c>
       <c r="F16">
-        <v>0.73238625</v>
+        <v>0.8988550199999995</v>
       </c>
       <c r="G16">
-        <v>1.0681929</v>
+        <v>1.025659</v>
       </c>
       <c r="H16">
-        <v>1.0542662</v>
+        <v>1.0216333</v>
       </c>
       <c r="I16">
-        <v>0.84826304</v>
+        <v>0.9430552000000019</v>
       </c>
       <c r="J16">
-        <v>1.2008753</v>
+        <v>1.073924099999999</v>
       </c>
       <c r="K16">
-        <v>1.0542662</v>
+        <v>1.0216333</v>
       </c>
       <c r="L16">
-        <v>1.0739241</v>
+        <v>1.027315700000001</v>
       </c>
       <c r="M16">
-        <v>0.903155175</v>
+        <v>0.9630853600000002</v>
       </c>
       <c r="N16">
-        <v>0.903155175</v>
+        <v>0.9630853600000002</v>
       </c>
       <c r="O16">
-        <v>0.8848577966666666</v>
+        <v>0.9564086400000008</v>
       </c>
       <c r="P16">
-        <v>0.9535255166666667</v>
+        <v>0.9826013400000001</v>
       </c>
       <c r="Q16">
-        <v>0.9535255166666667</v>
+        <v>0.9826013400000001</v>
       </c>
       <c r="R16">
-        <v>0.9787106875</v>
+        <v>0.9923593300000001</v>
       </c>
       <c r="S16">
-        <v>0.9787106875</v>
+        <v>0.9923593300000001</v>
       </c>
       <c r="T16">
-        <v>0.9963179649999999</v>
+        <v>0.9984070533333336</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99016125</v>
+        <v>0.88779747</v>
       </c>
       <c r="D17">
-        <v>1.0070675</v>
+        <v>1.0396018</v>
       </c>
       <c r="E17">
-        <v>0.9998997800000001</v>
+        <v>1.0216333</v>
       </c>
       <c r="F17">
-        <v>0.99016125</v>
+        <v>0.88779747</v>
       </c>
       <c r="G17">
-        <v>1.0019895</v>
+        <v>1.0268719</v>
       </c>
       <c r="H17">
-        <v>1.0070675</v>
+        <v>1.0396018</v>
       </c>
       <c r="I17">
-        <v>0.9962475</v>
+        <v>0.94244704</v>
       </c>
       <c r="J17">
-        <v>0.99836747</v>
+        <v>1.0542662</v>
       </c>
       <c r="K17">
-        <v>1.0070675</v>
+        <v>1.0396018</v>
       </c>
       <c r="L17">
-        <v>0.9998997800000001</v>
+        <v>1.0216333</v>
       </c>
       <c r="M17">
-        <v>0.9950305150000001</v>
+        <v>0.954715385</v>
       </c>
       <c r="N17">
-        <v>0.9950305150000001</v>
+        <v>0.954715385</v>
       </c>
       <c r="O17">
-        <v>0.9954361766666667</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P17">
-        <v>0.9990428433333335</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q17">
-        <v>0.9990428433333335</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R17">
-        <v>1.0010490075</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S17">
-        <v>1.0010490075</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T17">
-        <v>0.9989555000000001</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.959251740684932</v>
+        <v>0.73238625</v>
       </c>
       <c r="D18">
-        <v>1.011471202739726</v>
+        <v>1.0542662</v>
       </c>
       <c r="E18">
-        <v>1.009473645205479</v>
+        <v>1.0739241</v>
       </c>
       <c r="F18">
-        <v>0.959251740684932</v>
+        <v>0.73238625</v>
       </c>
       <c r="G18">
-        <v>1.010056030410959</v>
+        <v>1.0681929</v>
       </c>
       <c r="H18">
-        <v>1.011471202739726</v>
+        <v>1.0542662</v>
       </c>
       <c r="I18">
-        <v>0.9780507391780822</v>
+        <v>0.84826304</v>
       </c>
       <c r="J18">
-        <v>1.024882579178083</v>
+        <v>1.2008753</v>
       </c>
       <c r="K18">
-        <v>1.011471202739726</v>
+        <v>1.0542662</v>
       </c>
       <c r="L18">
-        <v>1.009473645205479</v>
+        <v>1.0739241</v>
       </c>
       <c r="M18">
-        <v>0.9843626929452056</v>
+        <v>0.903155175</v>
       </c>
       <c r="N18">
-        <v>0.9843626929452056</v>
+        <v>0.903155175</v>
       </c>
       <c r="O18">
-        <v>0.9822587083561644</v>
+        <v>0.8848577966666666</v>
       </c>
       <c r="P18">
-        <v>0.9933988628767124</v>
+        <v>0.9535255166666667</v>
       </c>
       <c r="Q18">
-        <v>0.9933988628767126</v>
+        <v>0.9535255166666667</v>
       </c>
       <c r="R18">
-        <v>0.997916947842466</v>
+        <v>0.9787106875</v>
       </c>
       <c r="S18">
-        <v>0.997916947842466</v>
+        <v>0.9787106875</v>
       </c>
       <c r="T18">
-        <v>0.9988643228995436</v>
+        <v>0.9963179649999999</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9559060231578946</v>
+        <v>0.99016125</v>
       </c>
       <c r="D19">
-        <v>1.007175040526316</v>
+        <v>1.0070675</v>
       </c>
       <c r="E19">
-        <v>1.013161517894737</v>
+        <v>0.9998997800000001</v>
       </c>
       <c r="F19">
-        <v>0.9559060231578946</v>
+        <v>0.99016125</v>
       </c>
       <c r="G19">
-        <v>1.011416189473684</v>
+        <v>1.0019895</v>
       </c>
       <c r="H19">
-        <v>1.007175040526316</v>
+        <v>1.0070675</v>
       </c>
       <c r="I19">
-        <v>0.9743628705263159</v>
+        <v>0.9962475</v>
       </c>
       <c r="J19">
-        <v>1.036237676842105</v>
+        <v>0.99836747</v>
       </c>
       <c r="K19">
-        <v>1.007175040526316</v>
+        <v>1.0070675</v>
       </c>
       <c r="L19">
-        <v>1.013161517894737</v>
+        <v>0.9998997800000001</v>
       </c>
       <c r="M19">
-        <v>0.9845337705263157</v>
+        <v>0.9950305150000001</v>
       </c>
       <c r="N19">
-        <v>0.9845337705263157</v>
+        <v>0.9950305150000001</v>
       </c>
       <c r="O19">
-        <v>0.9811434705263157</v>
+        <v>0.9954361766666667</v>
       </c>
       <c r="P19">
-        <v>0.9920808605263157</v>
+        <v>0.9990428433333335</v>
       </c>
       <c r="Q19">
-        <v>0.9920808605263157</v>
+        <v>0.9990428433333335</v>
       </c>
       <c r="R19">
-        <v>0.9958544055263158</v>
+        <v>1.0010490075</v>
       </c>
       <c r="S19">
-        <v>0.9958544055263158</v>
+        <v>1.0010490075</v>
       </c>
       <c r="T19">
-        <v>0.9997098864035087</v>
+        <v>0.9989555000000001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8933262410526317</v>
+        <v>0.959251740684932</v>
       </c>
       <c r="D20">
-        <v>1.030617573684211</v>
+        <v>1.011471202739726</v>
       </c>
       <c r="E20">
-        <v>1.024474484210526</v>
+        <v>1.009473645205479</v>
       </c>
       <c r="F20">
-        <v>0.8933262410526317</v>
+        <v>0.959251740684932</v>
       </c>
       <c r="G20">
-        <v>1.026265457894737</v>
+        <v>1.010056030410959</v>
       </c>
       <c r="H20">
-        <v>1.030617573684211</v>
+        <v>1.011471202739726</v>
       </c>
       <c r="I20">
-        <v>0.9427511200000002</v>
+        <v>0.9780507391780822</v>
       </c>
       <c r="J20">
-        <v>1.06409517368421</v>
+        <v>1.024882579178083</v>
       </c>
       <c r="K20">
-        <v>1.030617573684211</v>
+        <v>1.011471202739726</v>
       </c>
       <c r="L20">
-        <v>1.024474484210526</v>
+        <v>1.009473645205479</v>
       </c>
       <c r="M20">
-        <v>0.958900362631579</v>
+        <v>0.9843626929452056</v>
       </c>
       <c r="N20">
-        <v>0.958900362631579</v>
+        <v>0.9843626929452056</v>
       </c>
       <c r="O20">
-        <v>0.9535172817543861</v>
+        <v>0.9822587083561644</v>
       </c>
       <c r="P20">
-        <v>0.9828060996491228</v>
+        <v>0.9933988628767124</v>
       </c>
       <c r="Q20">
-        <v>0.9828060996491228</v>
+        <v>0.9933988628767126</v>
       </c>
       <c r="R20">
-        <v>0.9947589681578948</v>
+        <v>0.997916947842466</v>
       </c>
       <c r="S20">
-        <v>0.9947589681578948</v>
+        <v>0.997916947842466</v>
       </c>
       <c r="T20">
-        <v>0.9969216750877193</v>
+        <v>0.9988643228995436</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.084872540720699</v>
+        <v>0.9559060231578946</v>
       </c>
       <c r="D21">
-        <v>0.9758128926794662</v>
+        <v>1.007175040526316</v>
       </c>
       <c r="E21">
-        <v>0.980431295704405</v>
+        <v>1.013161517894737</v>
       </c>
       <c r="F21">
-        <v>1.084872540720699</v>
+        <v>0.9559060231578946</v>
       </c>
       <c r="G21">
-        <v>0.9790848220696176</v>
+        <v>1.011416189473684</v>
       </c>
       <c r="H21">
-        <v>0.9758128926794662</v>
+        <v>1.007175040526316</v>
       </c>
       <c r="I21">
-        <v>1.045611056808134</v>
+        <v>0.9743628705263159</v>
       </c>
       <c r="J21">
-        <v>0.9486964785724048</v>
+        <v>1.036237676842105</v>
       </c>
       <c r="K21">
-        <v>0.9758128926794662</v>
+        <v>1.007175040526316</v>
       </c>
       <c r="L21">
-        <v>0.980431295704405</v>
+        <v>1.013161517894737</v>
       </c>
       <c r="M21">
-        <v>1.032651918212552</v>
+        <v>0.9845337705263157</v>
       </c>
       <c r="N21">
-        <v>1.032651918212552</v>
+        <v>0.9845337705263157</v>
       </c>
       <c r="O21">
-        <v>1.036971631077746</v>
+        <v>0.9811434705263157</v>
       </c>
       <c r="P21">
-        <v>1.01370557636819</v>
+        <v>0.9920808605263157</v>
       </c>
       <c r="Q21">
-        <v>1.01370557636819</v>
+        <v>0.9920808605263157</v>
       </c>
       <c r="R21">
-        <v>1.004232405446009</v>
+        <v>0.9958544055263158</v>
       </c>
       <c r="S21">
-        <v>1.004232405446009</v>
+        <v>0.9958544055263158</v>
       </c>
       <c r="T21">
-        <v>1.002418181092454</v>
+        <v>0.9997098864035087</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.021208642780078</v>
+        <v>0.8933262410526317</v>
       </c>
       <c r="D22">
-        <v>0.9958976885806454</v>
+        <v>1.030617573684211</v>
       </c>
       <c r="E22">
-        <v>0.9940312578073411</v>
+        <v>1.024474484210526</v>
       </c>
       <c r="F22">
-        <v>1.021208642780078</v>
+        <v>0.8933262410526317</v>
       </c>
       <c r="G22">
-        <v>0.9945754080261084</v>
+        <v>1.026265457894737</v>
       </c>
       <c r="H22">
-        <v>0.9958976885806454</v>
+        <v>1.030617573684211</v>
       </c>
       <c r="I22">
-        <v>1.012096698796497</v>
+        <v>0.9427511200000002</v>
       </c>
       <c r="J22">
-        <v>0.983727838486491</v>
+        <v>1.06409517368421</v>
       </c>
       <c r="K22">
-        <v>0.9958976885806454</v>
+        <v>1.030617573684211</v>
       </c>
       <c r="L22">
-        <v>0.9940312578073411</v>
+        <v>1.024474484210526</v>
       </c>
       <c r="M22">
-        <v>1.00761995029371</v>
+        <v>0.958900362631579</v>
       </c>
       <c r="N22">
-        <v>1.00761995029371</v>
+        <v>0.958900362631579</v>
       </c>
       <c r="O22">
-        <v>1.009112199794639</v>
+        <v>0.9535172817543861</v>
       </c>
       <c r="P22">
-        <v>1.003712529722688</v>
+        <v>0.9828060996491228</v>
       </c>
       <c r="Q22">
-        <v>1.003712529722688</v>
+        <v>0.9828060996491228</v>
       </c>
       <c r="R22">
-        <v>1.001758819437177</v>
+        <v>0.9947589681578948</v>
       </c>
       <c r="S22">
-        <v>1.001758819437177</v>
+        <v>0.9947589681578948</v>
       </c>
       <c r="T22">
-        <v>1.000256255746194</v>
+        <v>0.9969216750877193</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.026307230416782</v>
+        <v>1.084872540720699</v>
       </c>
       <c r="D23">
-        <v>0.9936042637496323</v>
+        <v>0.9758128926794662</v>
       </c>
       <c r="E23">
-        <v>0.9933225938083304</v>
+        <v>0.980431295704405</v>
       </c>
       <c r="F23">
-        <v>1.026307230416782</v>
+        <v>1.084872540720699</v>
       </c>
       <c r="G23">
-        <v>0.9934047168842154</v>
+        <v>0.9790848220696176</v>
       </c>
       <c r="H23">
-        <v>0.9936042637496323</v>
+        <v>0.9758128926794662</v>
       </c>
       <c r="I23">
-        <v>1.01453417301664</v>
+        <v>1.045611056808134</v>
       </c>
       <c r="J23">
-        <v>0.9821399329621439</v>
+        <v>0.9486964785724048</v>
       </c>
       <c r="K23">
-        <v>0.9936042637496323</v>
+        <v>0.9758128926794662</v>
       </c>
       <c r="L23">
-        <v>0.9933225938083304</v>
+        <v>0.980431295704405</v>
       </c>
       <c r="M23">
-        <v>1.009814912112556</v>
+        <v>1.032651918212552</v>
       </c>
       <c r="N23">
-        <v>1.009814912112556</v>
+        <v>1.032651918212552</v>
       </c>
       <c r="O23">
-        <v>1.011387999080584</v>
+        <v>1.036971631077746</v>
       </c>
       <c r="P23">
-        <v>1.004411362658248</v>
+        <v>1.01370557636819</v>
       </c>
       <c r="Q23">
-        <v>1.004411362658248</v>
+        <v>1.01370557636819</v>
       </c>
       <c r="R23">
-        <v>1.001709587931094</v>
+        <v>1.004232405446009</v>
       </c>
       <c r="S23">
-        <v>1.001709587931094</v>
+        <v>1.004232405446009</v>
       </c>
       <c r="T23">
-        <v>1.000552151806291</v>
+        <v>1.002418181092454</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.006916326509449</v>
+        <v>1.021208642780078</v>
       </c>
       <c r="D24">
-        <v>0.9981876067073272</v>
+        <v>0.9958976885806454</v>
       </c>
       <c r="E24">
-        <v>0.99831720350967</v>
+        <v>0.9940312578073411</v>
       </c>
       <c r="F24">
-        <v>1.006916326509449</v>
+        <v>1.021208642780078</v>
       </c>
       <c r="G24">
-        <v>0.9982794187545455</v>
+        <v>0.9945754080261084</v>
       </c>
       <c r="H24">
-        <v>0.9981876067073272</v>
+        <v>0.9958976885806454</v>
       </c>
       <c r="I24">
-        <v>1.003773989426914</v>
+        <v>1.012096698796497</v>
       </c>
       <c r="J24">
-        <v>0.9955372268525647</v>
+        <v>0.983727838486491</v>
       </c>
       <c r="K24">
-        <v>0.9981876067073272</v>
+        <v>0.9958976885806454</v>
       </c>
       <c r="L24">
-        <v>0.99831720350967</v>
+        <v>0.9940312578073411</v>
       </c>
       <c r="M24">
-        <v>1.002616765009559</v>
+        <v>1.00761995029371</v>
       </c>
       <c r="N24">
-        <v>1.002616765009559</v>
+        <v>1.00761995029371</v>
       </c>
       <c r="O24">
-        <v>1.003002506482011</v>
+        <v>1.009112199794639</v>
       </c>
       <c r="P24">
-        <v>1.001140378908815</v>
+        <v>1.003712529722688</v>
       </c>
       <c r="Q24">
-        <v>1.001140378908815</v>
+        <v>1.003712529722688</v>
       </c>
       <c r="R24">
-        <v>1.000402185858443</v>
+        <v>1.001758819437177</v>
       </c>
       <c r="S24">
-        <v>1.000402185858443</v>
+        <v>1.001758819437177</v>
       </c>
       <c r="T24">
-        <v>1.000168628626745</v>
+        <v>1.000256255746194</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9144735529962644</v>
+        <v>1.026307230416782</v>
       </c>
       <c r="D25">
-        <v>1.027358947921066</v>
+        <v>0.9936042637496323</v>
       </c>
       <c r="E25">
-        <v>1.018060862214944</v>
+        <v>0.9933225938083304</v>
       </c>
       <c r="F25">
-        <v>0.9144735529962644</v>
+        <v>1.026307230416782</v>
       </c>
       <c r="G25">
-        <v>1.0207716718042</v>
+        <v>0.9934047168842154</v>
       </c>
       <c r="H25">
-        <v>1.027358947921066</v>
+        <v>0.9936042637496323</v>
       </c>
       <c r="I25">
-        <v>0.9551122940616734</v>
+        <v>1.01453417301664</v>
       </c>
       <c r="J25">
-        <v>1.04639125490589</v>
+        <v>0.9821399329621439</v>
       </c>
       <c r="K25">
-        <v>1.027358947921066</v>
+        <v>0.9936042637496323</v>
       </c>
       <c r="L25">
-        <v>1.018060862214944</v>
+        <v>0.9933225938083304</v>
       </c>
       <c r="M25">
-        <v>0.966267207605604</v>
+        <v>1.009814912112556</v>
       </c>
       <c r="N25">
-        <v>0.966267207605604</v>
+        <v>1.009814912112556</v>
       </c>
       <c r="O25">
-        <v>0.9625489030909605</v>
+        <v>1.011387999080584</v>
       </c>
       <c r="P25">
-        <v>0.9866311210440916</v>
+        <v>1.004411362658248</v>
       </c>
       <c r="Q25">
-        <v>0.9866311210440916</v>
+        <v>1.004411362658248</v>
       </c>
       <c r="R25">
-        <v>0.9968130777633353</v>
+        <v>1.001709587931094</v>
       </c>
       <c r="S25">
-        <v>0.9968130777633353</v>
+        <v>1.001709587931094</v>
       </c>
       <c r="T25">
-        <v>0.9970280973173397</v>
+        <v>1.000552151806291</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9800538844864589</v>
+        <v>1.006916326509449</v>
       </c>
       <c r="D26">
-        <v>1.002514072909067</v>
+        <v>0.9981876067073272</v>
       </c>
       <c r="E26">
-        <v>1.00636012184036</v>
+        <v>0.99831720350967</v>
       </c>
       <c r="F26">
-        <v>0.9800538844864589</v>
+        <v>1.006916326509449</v>
       </c>
       <c r="G26">
-        <v>1.005238823197222</v>
+        <v>0.9982794187545455</v>
       </c>
       <c r="H26">
-        <v>1.002514072909067</v>
+        <v>0.9981876067073272</v>
       </c>
       <c r="I26">
-        <v>0.9881395532656533</v>
+        <v>1.003773989426914</v>
       </c>
       <c r="J26">
-        <v>1.017692890869404</v>
+        <v>0.9955372268525647</v>
       </c>
       <c r="K26">
-        <v>1.002514072909067</v>
+        <v>0.9981876067073272</v>
       </c>
       <c r="L26">
-        <v>1.00636012184036</v>
+        <v>0.99831720350967</v>
       </c>
       <c r="M26">
-        <v>0.9932070031634093</v>
+        <v>1.002616765009559</v>
       </c>
       <c r="N26">
-        <v>0.9932070031634093</v>
+        <v>1.002616765009559</v>
       </c>
       <c r="O26">
-        <v>0.9915178531974905</v>
+        <v>1.003002506482011</v>
       </c>
       <c r="P26">
-        <v>0.9963093597452953</v>
+        <v>1.001140378908815</v>
       </c>
       <c r="Q26">
-        <v>0.9963093597452953</v>
+        <v>1.001140378908815</v>
       </c>
       <c r="R26">
-        <v>0.9978605380362383</v>
+        <v>1.000402185858443</v>
       </c>
       <c r="S26">
-        <v>0.9978605380362383</v>
+        <v>1.000402185858443</v>
       </c>
       <c r="T26">
-        <v>0.9999998910946942</v>
+        <v>1.000168628626745</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9937528741572775</v>
+        <v>0.9144735529962644</v>
       </c>
       <c r="D27">
-        <v>1.001645022614266</v>
+        <v>1.027358947921066</v>
       </c>
       <c r="E27">
-        <v>1.001515537225626</v>
+        <v>1.018060862214944</v>
       </c>
       <c r="F27">
-        <v>0.9937528741572775</v>
+        <v>0.9144735529962644</v>
       </c>
       <c r="G27">
-        <v>1.001553277827893</v>
+        <v>1.0207716718042</v>
       </c>
       <c r="H27">
-        <v>1.001645022614266</v>
+        <v>1.027358947921066</v>
       </c>
       <c r="I27">
-        <v>0.9965940396928631</v>
+        <v>0.9551122940616734</v>
       </c>
       <c r="J27">
-        <v>1.004016751099076</v>
+        <v>1.04639125490589</v>
       </c>
       <c r="K27">
-        <v>1.001645022614266</v>
+        <v>1.027358947921066</v>
       </c>
       <c r="L27">
-        <v>1.001515537225626</v>
+        <v>1.018060862214944</v>
       </c>
       <c r="M27">
-        <v>0.9976342056914516</v>
+        <v>0.966267207605604</v>
       </c>
       <c r="N27">
-        <v>0.9976342056914516</v>
+        <v>0.966267207605604</v>
       </c>
       <c r="O27">
-        <v>0.9972874836919221</v>
+        <v>0.9625489030909605</v>
       </c>
       <c r="P27">
-        <v>0.998971144665723</v>
+        <v>0.9866311210440916</v>
       </c>
       <c r="Q27">
-        <v>0.998971144665723</v>
+        <v>0.9866311210440916</v>
       </c>
       <c r="R27">
-        <v>0.9996396141528587</v>
+        <v>0.9968130777633353</v>
       </c>
       <c r="S27">
-        <v>0.9996396141528587</v>
+        <v>0.9968130777633353</v>
       </c>
       <c r="T27">
-        <v>0.9998462504361667</v>
+        <v>0.9970280973173397</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9889465237217556</v>
+        <v>0.9800538844864589</v>
       </c>
       <c r="D28">
-        <v>1.003197687525669</v>
+        <v>1.002514072909067</v>
       </c>
       <c r="E28">
-        <v>1.002522079779784</v>
+        <v>1.00636012184036</v>
       </c>
       <c r="F28">
-        <v>0.9889465237217556</v>
+        <v>0.9800538844864589</v>
       </c>
       <c r="G28">
-        <v>1.002719046413812</v>
+        <v>1.005238823197222</v>
       </c>
       <c r="H28">
-        <v>1.003197687525669</v>
+        <v>1.002514072909067</v>
       </c>
       <c r="I28">
-        <v>0.994076935005174</v>
+        <v>0.9881395532656533</v>
       </c>
       <c r="J28">
-        <v>1.006596862655956</v>
+        <v>1.017692890869404</v>
       </c>
       <c r="K28">
-        <v>1.003197687525669</v>
+        <v>1.002514072909067</v>
       </c>
       <c r="L28">
-        <v>1.002522079779784</v>
+        <v>1.00636012184036</v>
       </c>
       <c r="M28">
-        <v>0.9957343017507697</v>
+        <v>0.9932070031634093</v>
       </c>
       <c r="N28">
-        <v>0.9957343017507697</v>
+        <v>0.9932070031634093</v>
       </c>
       <c r="O28">
-        <v>0.9951818461689045</v>
+        <v>0.9915178531974905</v>
       </c>
       <c r="P28">
-        <v>0.9982220970090697</v>
+        <v>0.9963093597452953</v>
       </c>
       <c r="Q28">
-        <v>0.9982220970090697</v>
+        <v>0.9963093597452953</v>
       </c>
       <c r="R28">
-        <v>0.9994659946382196</v>
+        <v>0.9978605380362383</v>
       </c>
       <c r="S28">
-        <v>0.9994659946382196</v>
+        <v>0.9978605380362383</v>
       </c>
       <c r="T28">
-        <v>0.9996765225170251</v>
+        <v>0.9999998910946942</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9937528741572775</v>
+      </c>
+      <c r="D29">
+        <v>1.001645022614266</v>
+      </c>
+      <c r="E29">
+        <v>1.001515537225626</v>
+      </c>
+      <c r="F29">
+        <v>0.9937528741572775</v>
+      </c>
+      <c r="G29">
+        <v>1.001553277827893</v>
+      </c>
+      <c r="H29">
+        <v>1.001645022614266</v>
+      </c>
+      <c r="I29">
+        <v>0.9965940396928631</v>
+      </c>
+      <c r="J29">
+        <v>1.004016751099076</v>
+      </c>
+      <c r="K29">
+        <v>1.001645022614266</v>
+      </c>
+      <c r="L29">
+        <v>1.001515537225626</v>
+      </c>
+      <c r="M29">
+        <v>0.9976342056914516</v>
+      </c>
+      <c r="N29">
+        <v>0.9976342056914516</v>
+      </c>
+      <c r="O29">
+        <v>0.9972874836919221</v>
+      </c>
+      <c r="P29">
+        <v>0.998971144665723</v>
+      </c>
+      <c r="Q29">
+        <v>0.998971144665723</v>
+      </c>
+      <c r="R29">
+        <v>0.9996396141528587</v>
+      </c>
+      <c r="S29">
+        <v>0.9996396141528587</v>
+      </c>
+      <c r="T29">
+        <v>0.9998462504361667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9889465237217556</v>
+      </c>
+      <c r="D30">
+        <v>1.003197687525669</v>
+      </c>
+      <c r="E30">
+        <v>1.002522079779784</v>
+      </c>
+      <c r="F30">
+        <v>0.9889465237217556</v>
+      </c>
+      <c r="G30">
+        <v>1.002719046413812</v>
+      </c>
+      <c r="H30">
+        <v>1.003197687525669</v>
+      </c>
+      <c r="I30">
+        <v>0.994076935005174</v>
+      </c>
+      <c r="J30">
+        <v>1.006596862655956</v>
+      </c>
+      <c r="K30">
+        <v>1.003197687525669</v>
+      </c>
+      <c r="L30">
+        <v>1.002522079779784</v>
+      </c>
+      <c r="M30">
+        <v>0.9957343017507697</v>
+      </c>
+      <c r="N30">
+        <v>0.9957343017507697</v>
+      </c>
+      <c r="O30">
+        <v>0.9951818461689045</v>
+      </c>
+      <c r="P30">
+        <v>0.9982220970090697</v>
+      </c>
+      <c r="Q30">
+        <v>0.9982220970090697</v>
+      </c>
+      <c r="R30">
+        <v>0.9994659946382196</v>
+      </c>
+      <c r="S30">
+        <v>0.9994659946382196</v>
+      </c>
+      <c r="T30">
+        <v>0.9996765225170251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.007797868523191</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9997295528573743</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9971177448108343</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.007797868523191</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.997879199588278</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9997295528573743</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.004893264496398</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9918164984669819</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9997295528573743</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9971177448108343</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.002457806667013</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.002457806667013</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.003269625943474</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.001548388730467</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.001548388730466</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.001093679762193</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.001093679762193</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9998723547905094</v>
       </c>
     </row>
